--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 9:14 AM</t>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Sunday, 21 September, 2025 9:25 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>40</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -62,7 +62,19 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 9:25 AM</t>
+    <t xml:space="preserve">معطر جو FRIDA </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 21 September, 2025 9:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +736,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>23</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +814,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>جونتي عمال</t>
   </si>
   <si>
@@ -74,7 +92,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 9:33 AM</t>
+    <t>Sunday, 21 September, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -754,53 +772,86 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>105</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>24</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>19</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>23</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>184.19999999999999</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>29</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +870,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -80,19 +80,28 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>شاش فازلين 10*10 سم</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 11:16 AM</t>
+    <t>Sunday, 21 September, 2025 11:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -820,38 +829,71 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>184.19999999999999</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>24</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>19</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>28</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>29</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>191.19999999999999</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>32</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +917,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -62,24 +62,36 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>جونتي عمال</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>شاش فازلين 10*10 سم</t>
   </si>
   <si>
@@ -101,7 +113,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 11:17 AM</t>
+    <t>Sunday, 21 September, 2025 11:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -841,7 +853,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -851,49 +863,82 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>191.19999999999999</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>30</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>31</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>28</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>32</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>226.19999999999999</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -922,10 +967,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -62,30 +62,30 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>38:0</t>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>جونتي عمال</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -104,6 +104,18 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -113,7 +125,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 11:21 AM</t>
+    <t>Sunday, 21 September, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -793,18 +805,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -813,20 +825,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -837,7 +849,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -859,7 +871,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -870,7 +882,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -886,59 +898,92 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>226.19999999999999</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>34</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>28</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>24</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>367.19999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>40</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1017,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -125,7 +125,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 11:30 AM</t>
+    <t>Sunday, 21 September, 2025 11:45 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -44,22 +44,142 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>CETAL SINUS 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DEETRIO 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>DELTACLAV 457MG/5ML PD. FOR ORAL 80ML SUSP.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>240.00</t>
   </si>
   <si>
     <t>79.2000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>RX MASSAGE SPRAY</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
   </si>
   <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
@@ -71,10 +191,7 @@
     <t>126.00</t>
   </si>
   <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
+    <t>252.0000</t>
   </si>
   <si>
     <t>جونتي عمال</t>
@@ -83,9 +200,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -125,7 +239,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 11:45 AM</t>
+    <t>Sunday, 21 September, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -799,7 +913,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -809,14 +923,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -825,31 +939,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -858,31 +972,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -891,31 +1005,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -924,66 +1038,462 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>16</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>31</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>35</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>37</v>
       </c>
-      <c t="s" r="Q12" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>367.19999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>31</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>38</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>39</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>40</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>41</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>44</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>45</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>48</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>51</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>52</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>54</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>44</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>31</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>55</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>58</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>59</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>62</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>31</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>66</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>31</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>70</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>31</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>66</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>31</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>74</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1252.7000000000001</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>76</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>77</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>78</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1022,10 +1532,70 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -239,7 +239,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 12:24 PM</t>
+    <t>Sunday, 21 September, 2025 12:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -173,6 +185,15 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>RX MASSAGE SPRAY</t>
   </si>
   <si>
@@ -239,7 +260,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 12:27 PM</t>
+    <t>Sunday, 21 September, 2025 12:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1210,7 +1231,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1220,14 +1241,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1260,7 +1281,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1269,31 +1290,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1302,14 +1323,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1326,7 +1347,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1342,7 +1363,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1352,11 +1373,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1368,31 +1389,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1401,14 +1422,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1418,11 +1439,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1434,14 +1455,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1462,38 +1483,104 @@
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1252.7000000000001</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>76</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
         <v>77</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>31</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>78</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>73</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>31</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>81</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1330.7000000000001</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>83</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>84</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>85</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1592,10 +1679,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -140,18 +140,6 @@
     <t>89.0000</t>
   </si>
   <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -185,6 +173,9 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
@@ -203,6 +194,18 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -260,7 +263,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 12:50 PM</t>
+    <t>Sunday, 21 September, 2025 1:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1231,7 +1234,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1241,14 +1244,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>50</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1281,7 +1284,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1290,14 +1293,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1307,14 +1310,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1323,7 +1326,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1340,11 +1343,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1356,14 +1359,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1373,11 +1376,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1389,14 +1392,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1406,14 +1409,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1422,31 +1425,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1455,14 +1458,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1472,11 +1475,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1488,14 +1491,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1505,11 +1508,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1521,14 +1524,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1538,49 +1541,82 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>74</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>31</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>82</v>
       </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1330.7000000000001</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>83</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1316.7000000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
         <v>84</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
         <v>85</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>86</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1689,10 +1725,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -164,6 +176,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -179,9 +200,6 @@
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -209,9 +227,6 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -263,7 +278,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 1:00 PM</t>
+    <t>Sunday, 21 September, 2025 1:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1216,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1211,14 +1226,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>46</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1234,7 +1249,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1244,14 +1259,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1284,7 +1299,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1293,14 +1308,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,14 +1325,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1326,14 +1341,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,14 +1358,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1359,28 +1374,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1392,14 +1407,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1409,14 +1424,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1425,31 +1440,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,31 +1473,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1491,31 +1506,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1524,14 +1539,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1541,11 +1556,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1557,14 +1572,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1574,49 +1589,115 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>83</v>
       </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1316.7000000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>31</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>84</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>85</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>86</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>79</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>31</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>87</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1404.7000000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>89</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>90</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>91</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1730,10 +1811,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -233,6 +233,18 @@
     <t>252.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>جونتي عمال</t>
   </si>
   <si>
@@ -278,7 +290,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 1:05 PM</t>
+    <t>Sunday, 21 September, 2025 1:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1645,7 +1657,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1655,49 +1667,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1404.7000000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>89</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>90</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>83</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>31</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>91</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1419.7000000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>93</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>94</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>95</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1821,10 +1866,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -164,6 +164,21 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -173,9 +188,6 @@
     <t>72.5000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -257,6 +269,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>شاش فازلين 10*10 سم</t>
   </si>
   <si>
@@ -290,7 +311,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 1:30 PM</t>
+    <t>Sunday, 21 September, 2025 1:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,7 +1315,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1304,14 +1325,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1320,7 +1341,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1337,14 +1358,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1353,7 +1374,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1370,14 +1391,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1386,14 +1407,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1403,14 +1424,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,7 +1440,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1436,11 +1457,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1452,28 +1473,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1485,20 +1506,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1509,7 +1530,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1525,7 +1546,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1535,14 +1556,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1551,20 +1572,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1575,7 +1596,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1657,7 +1678,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1667,11 +1688,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1683,14 +1704,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1711,38 +1732,104 @@
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1419.7000000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>93</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>94</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>31</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>95</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>97</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>90</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>31</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>98</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1433.7000000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>100</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>101</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>102</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1871,10 +1958,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -302,6 +302,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>معجون اسنان كلوس اب وسط</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -311,7 +320,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 1:31 PM</t>
+    <t>Sunday, 21 September, 2025 3:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1777,7 +1786,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1798,38 +1807,71 @@
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1433.7000000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>100</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>90</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>31</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>101</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1468.7000000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>103</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>104</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>105</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1968,10 +2010,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>252.0000</t>
   </si>
   <si>
+    <t>TETRA GLOW DAY CARE SPF+30 CREAM</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>350.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -320,7 +329,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 3:08 PM</t>
+    <t>Sunday, 21 September, 2025 3:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1630,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1631,11 +1640,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1647,14 +1656,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1664,11 +1673,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1680,14 +1689,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1720,7 +1729,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1730,11 +1739,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1746,14 +1755,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1763,11 +1772,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1779,14 +1788,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1819,7 +1828,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1840,38 +1849,71 @@
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1468.7000000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>103</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>93</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>31</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>104</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1818.7000000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>106</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>107</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>108</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2015,10 +2057,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -329,7 +329,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 3:13 PM</t>
+    <t>Sunday, 21 September, 2025 3:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>50.0000</t>
+  </si>
+  <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
   </si>
   <si>
     <t>معجون اسنان كلوس اب وسط</t>
@@ -1828,7 +1840,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1838,11 +1850,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1854,14 +1866,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1871,49 +1883,82 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1818.7000000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>106</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>107</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>93</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>31</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>108</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1843.7000000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>110</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>111</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>112</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2062,10 +2107,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>CETAFEN 30 TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
     <t>69.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>CETAL SINUS 20 CAPLETS</t>
   </si>
   <si>
@@ -188,6 +191,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -287,6 +299,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>شاش فازلين 10*10 سم</t>
   </si>
   <si>
@@ -326,12 +347,6 @@
     <t>معجون اسنان كلوس اب وسط</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -341,7 +356,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 3:18 PM</t>
+    <t>Sunday, 21 September, 2025 3:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -999,7 +1014,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1008,14 +1023,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1032,7 +1047,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1048,7 +1063,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1058,14 +1073,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1074,14 +1089,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1098,7 +1113,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1114,7 +1129,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1124,14 +1139,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1140,31 +1155,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1173,31 +1188,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1206,7 +1221,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1219,18 +1234,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1239,31 +1254,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1272,14 +1287,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1289,14 +1304,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1305,14 +1320,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1322,14 +1337,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1338,14 +1353,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1355,14 +1370,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1371,14 +1386,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1388,14 +1403,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1404,14 +1419,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1421,14 +1436,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1437,14 +1452,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1454,14 +1469,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1470,14 +1485,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1487,14 +1502,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1510,7 +1525,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1520,14 +1535,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1536,31 +1551,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1569,14 +1584,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1586,14 +1601,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1602,31 +1617,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1635,31 +1650,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1668,31 +1683,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1701,31 +1716,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1734,31 +1749,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1767,31 +1782,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1800,31 +1815,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1833,31 +1848,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1866,31 +1881,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1899,66 +1914,165 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>107</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>108</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>32</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>109</v>
       </c>
-      <c t="s" r="Q35" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1843.7000000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>111</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>90</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>32</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>61</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>112</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>100</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>32</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>113</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1910.7000000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>115</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>116</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>117</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2112,10 +2226,25 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -356,7 +356,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 3:31 PM</t>
+    <t>Sunday, 21 September, 2025 3:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -155,6 +155,27 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -176,9 +197,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>0:1</t>
   </si>
   <si>
@@ -224,9 +242,6 @@
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>RX MASSAGE SPRAY</t>
   </si>
   <si>
@@ -356,7 +371,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 3:32 PM</t>
+    <t>Sunday, 21 September, 2025 4:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1370,14 +1385,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1403,14 +1418,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1419,14 +1434,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1436,14 +1451,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1452,14 +1467,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1473,10 +1488,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1509,7 +1524,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1525,7 +1540,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1542,7 +1557,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1558,7 +1573,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1568,14 +1583,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1584,14 +1599,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1601,14 +1616,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1617,28 +1632,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1650,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1667,14 +1682,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1683,31 +1698,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1716,31 +1731,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1749,31 +1764,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1799,11 +1814,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1832,11 +1847,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1865,14 +1880,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1881,14 +1896,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1898,11 +1913,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1914,14 +1929,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1931,14 +1946,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1947,14 +1962,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1964,11 +1979,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1980,14 +1995,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1997,11 +2012,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2020,7 +2035,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2030,49 +2045,115 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1910.7000000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>115</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>116</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>95</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>32</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>67</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>117</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>105</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>32</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>118</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1952.7000000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>120</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>121</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>122</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2241,10 +2322,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -335,6 +344,15 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -359,19 +377,22 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
     <t>معجون اسنان كلوس اب وسط</t>
   </si>
   <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 21 September, 2025 4:45 PM</t>
+    <t>Sunday, 21 September, 2025 4:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1903,7 +1924,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1953,7 +1974,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1969,7 +1990,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1979,14 +2000,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,14 +2016,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2012,11 +2033,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2028,14 +2049,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2045,11 +2066,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2061,14 +2082,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2078,11 +2099,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2094,14 +2115,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2111,49 +2132,181 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1952.7000000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>120</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>121</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>122</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>123</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>32</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>92</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>124</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>115</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>32</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>45</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>125</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>95</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>32</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>67</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>126</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>108</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>32</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>99</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2147.6999999999998</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>127</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>128</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>129</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2332,10 +2485,30 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CETAFEN 30 TABS</t>
   </si>
   <si>
@@ -104,6 +116,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>DEETRIO 30TAB</t>
   </si>
   <si>
@@ -155,6 +176,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -179,45 +212,51 @@
     <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
   </si>
   <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>27.5000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -392,7 +431,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 4:46 PM</t>
+    <t>Sunday, 21 September, 2025 5:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1066,7 +1105,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1076,14 +1115,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>18</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>19</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1099,7 +1138,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1109,11 +1148,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1125,14 +1164,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1165,7 +1204,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1175,11 +1214,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1191,14 +1230,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1208,11 +1247,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1224,7 +1263,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1237,7 +1276,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1264,13 +1303,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1281,7 +1320,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1297,21 +1336,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1323,7 +1362,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1336,15 +1375,15 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1356,31 +1395,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1396,7 +1435,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1406,14 +1445,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1422,14 +1461,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1439,14 +1478,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>54</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1479,7 +1518,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1505,11 +1544,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>62</v>
@@ -1528,7 +1567,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1538,14 +1577,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1561,7 +1600,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1594,7 +1633,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1604,14 +1643,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1627,7 +1666,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1644,7 +1683,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1660,7 +1699,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1670,11 +1709,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1686,7 +1725,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1703,14 +1742,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1719,31 +1758,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1752,14 +1791,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1769,14 +1808,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>81</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1785,14 +1824,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1802,14 +1841,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1818,28 +1857,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1858,21 +1897,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1884,31 +1923,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1917,31 +1956,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1950,28 +1989,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1983,20 +2022,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2007,7 +2046,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2029,7 +2068,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2056,13 +2095,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2089,21 +2128,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2115,31 +2154,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2148,28 +2187,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2188,21 +2227,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2214,28 +2253,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2247,66 +2286,198 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2147.6999999999998</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>127</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>135</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>136</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>39</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>105</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>137</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>128</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>129</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>39</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>52</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>138</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>108</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>39</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>77</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>139</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>121</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>39</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>112</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2304.04</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>140</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>141</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>142</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2505,10 +2676,30 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -431,7 +431,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 5:25 PM</t>
+    <t>Sunday, 21 September, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -68,9 +83,6 @@
     <t>39.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAFEN 30 TABS</t>
   </si>
   <si>
@@ -176,6 +188,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -224,7 +248,10 @@
     <t>4:2</t>
   </si>
   <si>
-    <t>60.00</t>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:3</t>
   </si>
   <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
@@ -257,6 +284,15 @@
     <t>27.5000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -431,7 +467,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 5:32 PM</t>
+    <t>Sunday, 21 September, 2025 5:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1089,7 +1125,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1098,14 +1134,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1115,14 +1151,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1131,14 +1167,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1155,7 +1191,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1171,7 +1207,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1181,14 +1217,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1197,14 +1233,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1221,7 +1257,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1237,7 +1273,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1247,14 +1283,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1263,14 +1299,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1280,14 +1316,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1296,14 +1332,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1313,14 +1349,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1329,20 +1365,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1353,7 +1389,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1369,24 +1405,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1395,31 +1431,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1428,31 +1464,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1461,14 +1497,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1478,14 +1514,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1501,7 +1537,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1511,14 +1547,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>19</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1544,14 +1580,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1577,14 +1613,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1593,14 +1629,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1610,14 +1646,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1626,14 +1662,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1643,14 +1679,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1659,14 +1695,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1676,14 +1712,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1692,14 +1728,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1709,14 +1745,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1732,7 +1768,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1742,14 +1778,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1758,14 +1794,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1775,14 +1811,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1791,14 +1827,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1815,7 +1851,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1831,7 +1867,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1841,14 +1877,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1857,14 +1893,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1874,14 +1910,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1890,31 +1926,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1923,14 +1959,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,14 +1976,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1956,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1973,14 +2009,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1989,31 +2025,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2022,31 +2058,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2055,31 +2091,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2088,31 +2124,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,31 +2157,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,31 +2190,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2187,31 +2223,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2220,31 +2256,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2253,31 +2289,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,31 +2322,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,31 +2355,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2352,31 +2388,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2385,31 +2421,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2418,66 +2454,198 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2304.04</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>147</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>148</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>43</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>117</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>149</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
         <v>140</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>141</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>142</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>43</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>56</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>150</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>120</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>43</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>86</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>151</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>133</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>43</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>124</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2380.4699999999998</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>152</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>153</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>154</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2696,10 +2864,30 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -467,7 +467,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 5:33 PM</t>
+    <t>Sunday, 21 September, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>DEETRIO 30TAB</t>
   </si>
   <si>
@@ -185,9 +197,6 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -236,9 +245,6 @@
     <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
   </si>
   <si>
-    <t>32.00</t>
-  </si>
-  <si>
     <t>32.0000</t>
   </si>
   <si>
@@ -467,7 +473,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 5:43 PM</t>
+    <t>Sunday, 21 September, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,13 +1411,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1422,7 +1428,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1444,15 +1450,15 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1464,28 +1470,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1497,28 +1503,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1530,7 +1536,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1547,14 +1553,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1570,7 +1576,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1580,14 +1586,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1596,14 +1602,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1613,11 +1619,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1629,14 +1635,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1646,14 +1652,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1662,14 +1668,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1679,14 +1685,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1702,7 +1708,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1712,7 +1718,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1735,7 +1741,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1745,14 +1751,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1778,11 +1784,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1801,7 +1807,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1811,11 +1817,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1827,14 +1833,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,14 +1850,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1860,14 +1866,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1883,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1893,14 +1899,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1910,14 +1916,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1926,14 +1932,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1943,14 +1949,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1959,7 +1965,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1976,11 +1982,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1992,14 +1998,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2009,14 +2015,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2025,7 +2031,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2042,11 +2048,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2058,28 +2064,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2091,31 +2097,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2124,14 +2130,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2141,14 +2147,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,31 +2163,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2190,28 +2196,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2223,28 +2229,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2256,28 +2262,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2289,28 +2295,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2322,31 +2328,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2355,31 +2361,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,28 +2394,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2421,28 +2427,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2454,28 +2460,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2487,28 +2493,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2527,21 +2533,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2553,28 +2559,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2586,66 +2592,99 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2380.4699999999998</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>152</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>153</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>135</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>47</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>126</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2396.4699999999998</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
         <v>154</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>155</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>156</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2884,10 +2923,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -197,6 +206,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -221,6 +239,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:7</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -278,9 +308,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -362,6 +389,18 @@
     <t>350.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8247:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -398,9 +437,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>2.0000</t>
   </si>
   <si>
@@ -473,7 +509,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 5:46 PM</t>
+    <t>Sunday, 21 September, 2025 6:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1197,7 +1233,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1213,7 +1249,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1223,14 +1259,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1239,14 +1275,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1279,7 +1315,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1289,11 +1325,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1305,14 +1341,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1322,11 +1358,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1338,14 +1374,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1355,11 +1391,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1378,7 +1414,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1395,7 +1431,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1411,7 +1447,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1421,11 +1457,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1437,31 +1473,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1470,7 +1506,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1483,7 +1519,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1510,13 +1546,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1543,13 +1579,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1593,7 +1629,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1609,7 +1645,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1619,14 +1655,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1635,14 +1671,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1652,11 +1688,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1668,14 +1704,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1685,14 +1721,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1701,14 +1737,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1718,14 +1754,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1734,14 +1770,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1751,14 +1787,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1767,14 +1803,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1784,14 +1820,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1800,14 +1836,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1817,14 +1853,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1833,14 +1869,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1850,14 +1886,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1866,14 +1902,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1883,14 +1919,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1899,14 +1935,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1916,11 +1952,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1939,7 +1975,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1956,7 +1992,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1972,7 +2008,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1982,14 +2018,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2005,7 +2041,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2038,7 +2074,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2048,11 +2084,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2064,14 +2100,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2081,14 +2117,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2097,31 +2133,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,14 +2166,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2147,14 +2183,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2163,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2180,14 +2216,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2196,28 +2232,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2229,31 +2265,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2262,31 +2298,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,28 +2331,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2328,31 +2364,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2361,20 +2397,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2385,7 +2421,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2407,7 +2443,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2434,13 +2470,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2467,21 +2503,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2493,31 +2529,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2526,28 +2562,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2559,28 +2595,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2592,28 +2628,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2625,66 +2661,198 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2396.4699999999998</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>161</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>162</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>50</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>132</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>163</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
         <v>154</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>155</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>156</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>50</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>63</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>135</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>50</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>98</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>165</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>147</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>50</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>139</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2533.9899999999998</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>166</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>167</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>168</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2928,10 +3096,30 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -434,6 +434,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>زيت فاتيكا جرجير 180 مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -509,7 +518,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 6:08 PM</t>
+    <t>Sunday, 21 September, 2025 6:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2503,7 +2512,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,11 +2522,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2529,7 +2538,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2546,14 +2555,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2569,7 +2578,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,14 +2588,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2635,7 +2644,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,11 +2654,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2678,11 +2687,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2711,11 +2720,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2744,11 +2753,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2777,11 +2786,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2810,49 +2819,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>168</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>150</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>50</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>139</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>140</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2533.9899999999998</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>166</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>167</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>168</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q58" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2578.9899999999998</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>169</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>170</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>171</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3116,10 +3158,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -278,6 +278,12 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -344,6 +350,12 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -389,6 +401,18 @@
     <t>350.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -461,9 +485,6 @@
     <t>شاش فازلين 10*10 سم</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>7.00</t>
   </si>
   <si>
@@ -518,7 +539,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 6:09 PM</t>
+    <t>Sunday, 21 September, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1918,7 +1939,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1928,14 +1949,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1961,11 +1982,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1984,7 +2005,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1994,11 +2015,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2010,14 +2031,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2027,14 +2048,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2043,14 +2064,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2064,10 +2085,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2093,14 +2114,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2109,14 +2130,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2126,14 +2147,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2142,7 +2163,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2159,11 +2180,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2175,14 +2196,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2192,14 +2213,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2208,7 +2229,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2225,11 +2246,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2241,28 +2262,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2281,7 +2302,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,14 +2312,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2307,31 +2328,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,31 +2361,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2373,14 +2394,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2390,11 +2411,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>46</v>
@@ -2406,14 +2427,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2423,11 +2444,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2439,28 +2460,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2472,31 +2493,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2505,14 +2526,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2522,11 +2543,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2538,14 +2559,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2555,7 +2576,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2578,7 +2599,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2595,7 +2616,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2611,7 +2632,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2621,11 +2642,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2637,14 +2658,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2654,11 +2675,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2687,14 +2708,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2720,11 +2741,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2753,11 +2774,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -2769,14 +2790,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2786,11 +2807,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -2809,7 +2830,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2819,11 +2840,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2852,49 +2873,148 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2578.9899999999998</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>169</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>170</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>171</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>173</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>164</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>50</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>63</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>174</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>143</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>50</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>100</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>175</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>131</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>50</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>147</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2711.9899999999998</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>176</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>177</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>178</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3163,10 +3283,25 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -539,7 +539,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 6:26 PM</t>
+    <t>Sunday, 21 September, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -539,7 +539,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 6:29 PM</t>
+    <t>Sunday, 21 September, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -74,6 +74,27 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -95,9 +116,6 @@
     <t>CETAFEN 30 TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
@@ -278,6 +296,18 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
@@ -305,12 +335,21 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -350,6 +389,15 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -401,6 +449,18 @@
     <t>350.0000</t>
   </si>
   <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -413,6 +473,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -425,6 +497,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -440,9 +521,6 @@
     <t>جونتي عمال</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -470,9 +548,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -539,7 +614,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 6:45 PM</t>
+    <t>Sunday, 21 September, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1263,7 +1338,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1279,7 +1354,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1289,11 +1364,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1305,14 +1380,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1362,7 +1437,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1378,7 +1453,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1388,11 +1463,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1404,14 +1479,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1421,11 +1496,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1437,14 +1512,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1454,11 +1529,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1470,14 +1545,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1487,14 +1562,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1510,7 +1585,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1520,14 +1595,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1536,31 +1611,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1569,31 +1644,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1602,20 +1677,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1648,7 +1723,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1675,13 +1750,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1692,7 +1767,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1708,7 +1783,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1725,7 +1800,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1741,7 +1816,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1751,14 +1826,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1767,14 +1842,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1784,11 +1859,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1800,14 +1875,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1817,11 +1892,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1833,14 +1908,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1850,14 +1925,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1866,14 +1941,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1883,14 +1958,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1899,14 +1974,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1916,14 +1991,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1932,14 +2007,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1949,11 +2024,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -1965,14 +2040,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1982,14 +2057,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1998,14 +2073,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2015,11 +2090,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2031,14 +2106,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2048,14 +2123,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2064,14 +2139,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2081,14 +2156,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2097,14 +2172,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2114,11 +2189,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2130,14 +2205,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2147,14 +2222,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2163,14 +2238,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2180,14 +2255,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2196,14 +2271,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2213,14 +2288,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2229,7 +2304,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2246,14 +2321,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2262,14 +2337,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2279,11 +2354,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2295,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,14 +2387,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2328,31 +2403,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2361,14 +2436,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2378,14 +2453,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2394,14 +2469,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,14 +2486,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2427,28 +2502,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2460,14 +2535,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2477,11 +2552,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2493,31 +2568,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2526,31 +2601,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2559,31 +2634,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2592,28 +2667,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2625,31 +2700,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2658,24 +2733,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2698,24 +2773,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2724,31 +2799,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2757,31 +2832,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2790,28 +2865,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -2823,28 +2898,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -2856,28 +2931,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -2889,28 +2964,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -2922,31 +2997,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2955,66 +3030,330 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2711.9899999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>176</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>177</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>178</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>182</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>151</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>56</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>183</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>185</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>91</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>56</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>186</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>188</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>189</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>56</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>190</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>192</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>193</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>56</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>194</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>196</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>197</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>56</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>167</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>189</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>56</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>69</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>199</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>155</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>56</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>113</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>200</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>151</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>56</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>173</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3131.6799999999998</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>201</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>202</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>203</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3298,10 +3637,50 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>DEETRIO 30TAB</t>
   </si>
   <si>
@@ -614,7 +623,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 6:46 PM</t>
+    <t>Sunday, 21 September, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,21 +1693,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1710,7 +1719,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1723,7 +1732,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1750,13 +1759,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1783,13 +1792,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1833,7 +1842,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1849,7 +1858,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1866,7 +1875,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1882,7 +1891,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1892,11 +1901,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1925,11 +1934,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,11 +1967,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2007,14 +2016,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2047,7 +2056,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2057,11 +2066,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2090,14 +2099,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2127,10 +2136,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,11 +2231,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2245,7 +2254,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2292,7 +2301,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2304,14 +2313,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2321,14 +2330,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2344,7 +2353,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2361,7 +2370,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2377,7 +2386,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2394,7 +2403,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2443,7 +2452,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2476,7 +2485,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2502,7 +2511,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2519,11 +2528,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2535,7 +2544,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2552,11 +2561,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2568,28 +2577,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2608,24 +2617,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2658,7 +2667,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2674,13 +2683,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2691,7 +2700,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2707,24 +2716,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2750,14 +2759,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2856,7 +2865,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2872,24 +2881,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2898,20 +2907,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2938,13 +2947,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2971,13 +2980,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3004,24 +3013,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,28 +3039,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>52</v>
@@ -3070,13 +3079,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3087,7 +3096,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3103,13 +3112,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3136,21 +3145,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3162,28 +3171,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3195,28 +3204,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3228,28 +3237,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3261,28 +3270,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3294,66 +3303,99 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3131.6799999999998</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>201</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>202</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>203</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>154</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>59</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>176</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3319.6799999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>204</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>205</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>206</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3677,10 +3719,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -323,6 +332,18 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -470,6 +491,15 @@
     <t>10.8900</t>
   </si>
   <si>
+    <t>ULCEZOLE 60MG 20 DEL. REL. CAPSULES</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -485,9 +515,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -527,6 +554,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
     <t>جونتي عمال</t>
   </si>
   <si>
@@ -557,6 +590,15 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -608,12 +650,21 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
@@ -623,7 +674,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 6:49 PM</t>
+    <t>Sunday, 21 September, 2025 6:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2023,7 +2074,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2033,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2049,14 +2100,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2066,14 +2117,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2089,7 +2140,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2099,11 +2150,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2115,14 +2166,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2132,14 +2183,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2148,14 +2199,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2169,10 +2220,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2181,14 +2232,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2198,14 +2249,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2214,14 +2265,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2231,14 +2282,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2247,14 +2298,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2264,11 +2315,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2280,14 +2331,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2297,14 +2348,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2320,7 +2371,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2334,10 +2385,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2346,14 +2397,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2363,14 +2414,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2379,14 +2430,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2396,11 +2447,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2412,14 +2463,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2429,11 +2480,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2445,14 +2496,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2462,14 +2513,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2478,14 +2529,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2495,11 +2546,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2511,14 +2562,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2528,14 +2579,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2544,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2561,14 +2612,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2577,7 +2628,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2594,11 +2645,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2610,28 +2661,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2643,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2660,14 +2711,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2683,13 +2734,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2700,7 +2751,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2716,24 +2767,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2742,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2766,7 +2817,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2782,21 +2833,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2808,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2825,11 +2876,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2841,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2858,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2874,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2891,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2907,31 +2958,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2940,31 +2991,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2973,31 +3024,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3006,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3046,7 +3097,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3056,14 +3107,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3072,14 +3123,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3089,14 +3140,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3105,14 +3156,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3122,11 +3173,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3138,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3155,11 +3206,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3171,14 +3222,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3188,14 +3239,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3204,14 +3255,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3221,11 +3272,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3237,14 +3288,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3254,14 +3305,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3270,14 +3321,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3287,11 +3338,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3310,7 +3361,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3320,11 +3371,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3336,14 +3387,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3353,49 +3404,280 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3319.6799999999998</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>204</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>205</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>209</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>210</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>59</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>211</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>213</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>119</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>59</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>179</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>214</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>215</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>59</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>179</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>216</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>217</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>59</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>19</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>206</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>59</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>72</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>219</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>108</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>59</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>123</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>220</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>164</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>59</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>187</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3621.1799999999998</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>221</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>222</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>223</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3724,10 +4006,45 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -674,7 +674,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 6:51 PM</t>
+    <t>Sunday, 21 September, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -257,99 +257,105 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:3</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:7</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:7</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:4</t>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:2</t>
   </si>
   <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -452,9 +458,6 @@
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -674,7 +680,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 7:00 PM</t>
+    <t>Sunday, 21 September, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2025,7 +2031,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2034,14 +2040,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,11 +2057,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2067,7 +2073,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2084,11 +2090,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2100,14 +2106,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2121,10 +2127,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2133,14 +2139,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2154,7 +2160,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2166,7 +2172,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2187,7 +2193,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2199,14 +2205,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,11 +2222,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2232,7 +2238,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2249,7 +2255,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2265,14 +2271,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,11 +2288,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2298,14 +2304,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2319,7 +2325,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2331,14 +2337,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2352,7 +2358,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2364,7 +2370,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2381,11 +2387,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2397,14 +2403,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,11 +2420,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2430,14 +2436,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,7 +2453,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2463,7 +2469,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2480,11 +2486,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2496,7 +2502,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2513,11 +2519,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2529,7 +2535,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2546,11 +2552,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2562,7 +2568,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2579,11 +2585,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2595,7 +2601,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2612,11 +2618,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2628,7 +2634,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2649,7 +2655,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2661,7 +2667,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2694,7 +2700,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2715,7 +2721,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,11 +2750,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>147</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,7 +2799,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2810,11 +2816,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>52</v>
@@ -2826,14 +2832,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,11 +2849,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,11 +2882,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2892,7 +2898,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2909,11 +2915,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,11 +2948,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,14 +2981,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,14 +2997,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,14 +3014,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3057,31 +3063,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,14 +3096,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,11 +3113,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3130,7 +3136,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,11 +3146,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3156,14 +3162,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,11 +3179,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,11 +3212,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,14 +3245,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,14 +3278,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3371,11 +3377,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3404,11 +3410,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3420,14 +3426,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,11 +3443,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,11 +3476,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3486,14 +3492,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3503,11 +3509,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3536,11 +3542,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3559,7 +3565,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3569,11 +3575,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3585,14 +3591,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3602,11 +3608,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3635,49 +3641,82 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3621.1799999999998</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>221</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>222</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>165</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>59</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>189</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3670.8600000000001</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
         <v>223</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>224</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>225</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4041,10 +4080,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -680,7 +680,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 7:13 PM</t>
+    <t>Sunday, 21 September, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>BEBELAC 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -644,6 +653,9 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>غيار لاصق 10*25</t>
+  </si>
+  <si>
     <t>قصافات كبار</t>
   </si>
   <si>
@@ -680,7 +692,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 7:21 PM</t>
+    <t>Sunday, 21 September, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1503,7 +1515,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1519,7 +1531,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1536,7 +1548,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1552,7 +1564,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1585,7 +1597,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1595,11 +1607,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1611,14 +1623,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1628,11 +1640,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1644,14 +1656,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1661,11 +1673,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1684,7 +1696,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1701,7 +1713,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1717,7 +1729,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1727,11 +1739,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1743,14 +1755,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1767,7 +1779,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1783,21 +1795,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1809,7 +1821,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1822,7 +1834,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1849,13 +1861,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1882,13 +1894,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1932,7 +1944,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1948,7 +1960,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1965,7 +1977,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1981,7 +1993,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1991,11 +2003,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2007,14 +2019,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2024,14 +2036,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2040,14 +2052,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2057,14 +2069,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2073,14 +2085,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2113,7 +2125,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2123,14 +2135,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2139,14 +2151,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2156,14 +2168,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2179,7 +2191,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2189,11 +2201,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2205,14 +2217,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2222,14 +2234,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2238,14 +2250,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2259,10 +2271,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2271,14 +2283,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2292,7 +2304,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2304,14 +2316,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2321,14 +2333,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2354,11 +2366,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2370,14 +2382,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2387,11 +2399,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2410,7 +2422,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2457,7 +2469,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,14 +2498,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2509,7 +2521,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2526,7 +2538,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2542,7 +2554,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2559,7 +2571,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2608,7 +2620,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2641,7 +2653,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,14 +2663,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2667,7 +2679,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2684,11 +2696,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2700,7 +2712,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2717,11 +2729,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2733,28 +2745,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2773,13 +2785,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2790,7 +2802,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2806,7 +2818,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2823,7 +2835,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2839,13 +2851,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2856,7 +2868,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2872,24 +2884,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,14 +2910,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2938,7 +2950,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,14 +2960,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2964,14 +2976,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2981,11 +2993,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -2997,14 +3009,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3037,7 +3049,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,14 +3059,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3087,7 +3099,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3103,24 +3115,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3129,28 +3141,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3162,28 +3174,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3202,13 +3214,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3235,13 +3247,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3268,24 +3280,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3294,31 +3306,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3334,13 +3346,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3351,7 +3363,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3367,13 +3379,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3384,7 +3396,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3400,13 +3412,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3433,21 +3445,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3459,28 +3471,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3492,28 +3504,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3525,28 +3537,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3558,28 +3570,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3598,21 +3610,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3624,28 +3636,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3657,66 +3669,132 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3670.8600000000001</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>223</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>224</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>225</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>112</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>62</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>128</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>226</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>168</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>62</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>192</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3987.8600000000001</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>227</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>228</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>229</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4085,10 +4163,20 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -692,7 +692,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 7:27 PM</t>
+    <t>Sunday, 21 September, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -692,7 +692,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 7:29 PM</t>
+    <t>Sunday, 21 September, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -342,6 +342,15 @@
   </si>
   <si>
     <t>39.00</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
   </si>
   <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
@@ -2323,7 +2332,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2333,11 +2342,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2399,11 +2408,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2455,7 +2464,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2502,7 +2511,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2554,7 +2563,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2571,7 +2580,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2587,7 +2596,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2604,7 +2613,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2653,7 +2662,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2686,7 +2695,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2696,14 +2705,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2712,7 +2721,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2729,11 +2738,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2745,7 +2754,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2762,11 +2771,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2778,28 +2787,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2818,13 +2827,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2835,7 +2844,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2851,7 +2860,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2868,7 +2877,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2884,13 +2893,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2901,7 +2910,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2917,24 +2926,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2983,7 +2992,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3026,11 +3035,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3059,14 +3068,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3082,7 +3091,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3132,7 +3141,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3148,24 +3157,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3191,11 +3200,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3224,11 +3233,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3247,7 +3256,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3280,7 +3289,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3313,7 +3322,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3339,14 +3348,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3379,7 +3388,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3396,7 +3405,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3412,7 +3421,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3429,7 +3438,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3445,7 +3454,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3478,7 +3487,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3488,11 +3497,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3521,11 +3530,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3554,11 +3563,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3587,11 +3596,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3620,11 +3629,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3653,11 +3662,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3686,11 +3695,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3719,11 +3728,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3752,49 +3761,82 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3987.8600000000001</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>227</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>228</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>229</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>171</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>62</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>195</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4031.8600000000001</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>230</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>231</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>232</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4173,10 +4215,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -233,6 +233,9 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -278,6 +281,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -395,12 +407,6 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -425,6 +431,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -473,6 +488,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>SEDATUSS 20MG/5ML 100 ML SUSP.</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -491,6 +515,9 @@
     <t>252.0000</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
     <t>TETRA GLOW DAY CARE SPF+30 CREAM</t>
   </si>
   <si>
@@ -548,13 +575,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8247:0</t>
+    <t>8246:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
@@ -614,6 +641,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -623,6 +653,12 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>48:0</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -683,9 +719,6 @@
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -701,7 +734,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 7:30 PM</t>
+    <t>Sunday, 21 September, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1969,7 +2002,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1979,14 +2012,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1995,14 +2028,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2012,14 +2045,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2028,14 +2061,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2045,11 +2078,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2061,14 +2094,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2078,14 +2111,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2094,14 +2127,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2111,14 +2144,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2127,14 +2160,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2144,14 +2177,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2160,14 +2193,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2177,14 +2210,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2193,14 +2226,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2210,14 +2243,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2226,14 +2259,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2243,14 +2276,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2259,14 +2292,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2276,14 +2309,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2292,7 +2325,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2309,11 +2342,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2325,14 +2358,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2342,14 +2375,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2358,14 +2391,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2375,11 +2408,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2391,14 +2424,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2408,14 +2441,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2424,14 +2457,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2441,14 +2474,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2457,14 +2490,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2474,11 +2507,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2490,14 +2523,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2507,14 +2540,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2523,14 +2556,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2540,14 +2573,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2556,14 +2589,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2573,14 +2606,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2589,14 +2622,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2606,11 +2639,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2622,14 +2655,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2639,11 +2672,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2655,14 +2688,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2672,14 +2705,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2688,14 +2721,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2705,14 +2738,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2721,14 +2754,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2738,14 +2771,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2754,14 +2787,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2771,14 +2804,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2787,14 +2820,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2804,14 +2837,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2820,24 +2853,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2860,7 +2893,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2886,14 +2919,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2903,14 +2936,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2919,14 +2952,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2936,11 +2969,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -2952,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2969,14 +3002,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2985,14 +3018,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3002,14 +3035,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3018,14 +3051,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3035,14 +3068,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3051,14 +3084,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3068,11 +3101,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3084,31 +3117,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3117,14 +3150,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3134,14 +3167,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3150,7 +3183,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3167,11 +3200,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3183,28 +3216,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3216,28 +3249,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3249,31 +3282,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3282,31 +3315,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3315,31 +3348,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3348,14 +3381,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3365,14 +3398,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3381,14 +3414,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3398,11 +3431,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3414,14 +3447,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3431,14 +3464,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3447,14 +3480,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3464,11 +3497,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3480,14 +3513,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3497,11 +3530,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3513,14 +3546,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3530,14 +3563,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3546,14 +3579,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3563,11 +3596,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3579,14 +3612,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3596,11 +3629,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3612,14 +3645,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3629,14 +3662,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3645,14 +3678,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3662,11 +3695,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3678,14 +3711,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3695,11 +3728,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3711,14 +3744,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3728,11 +3761,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3744,14 +3777,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3761,11 +3794,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3777,14 +3810,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3794,49 +3827,247 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>234</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>131</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>62</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>196</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4031.8600000000001</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>230</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>231</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>232</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>235</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>210</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>62</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>196</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>236</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>237</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>62</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>19</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>238</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>226</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>62</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>76</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>239</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>119</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>62</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>133</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>240</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>180</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>62</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>204</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4306.8599999999997</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>241</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>242</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>243</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4220,10 +4451,40 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>EGY TOTAVIT SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -623,12 +632,6 @@
     <t>زيت جونسون صغير</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>زيت فاتيكا جرجير 180 مل</t>
   </si>
   <si>
@@ -656,7 +659,7 @@
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
-    <t>48:0</t>
+    <t>47:0</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -734,7 +737,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 7:32 PM</t>
+    <t>Sunday, 21 September, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2200,7 +2203,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2210,14 +2213,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2226,14 +2229,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2266,7 +2269,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2276,14 +2279,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2292,14 +2295,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2309,14 +2312,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2332,7 +2335,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2342,11 +2345,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2358,14 +2361,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2375,14 +2378,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2391,14 +2394,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2412,10 +2415,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2424,14 +2427,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2441,11 +2444,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2464,7 +2467,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2474,11 +2477,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2490,14 +2493,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2507,14 +2510,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2540,11 +2543,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2556,14 +2559,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2573,11 +2576,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2596,7 +2599,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2606,14 +2609,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2622,14 +2625,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2639,11 +2642,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2655,14 +2658,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2672,14 +2675,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2695,7 +2698,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2712,7 +2715,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2728,7 +2731,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2761,7 +2764,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2778,7 +2781,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2827,7 +2830,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2860,7 +2863,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2870,14 +2873,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2886,7 +2889,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2903,11 +2906,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2919,7 +2922,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2936,11 +2939,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2952,28 +2955,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -2992,13 +2995,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3025,7 +3028,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3042,7 +3045,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3058,7 +3061,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3075,7 +3078,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3091,7 +3094,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3101,14 +3104,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3117,28 +3120,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3157,24 +3160,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3183,14 +3186,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3223,7 +3226,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,14 +3236,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3249,14 +3252,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3266,11 +3269,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3282,14 +3285,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3299,14 +3302,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3322,7 +3325,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,14 +3335,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3348,14 +3351,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3372,7 +3375,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3388,24 +3391,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3414,14 +3417,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3431,11 +3434,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3447,14 +3450,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3464,11 +3467,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3487,7 +3490,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3520,7 +3523,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3530,11 +3533,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3546,14 +3549,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3563,14 +3566,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>210</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3579,14 +3582,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3596,14 +3599,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3612,14 +3615,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3629,11 +3632,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3645,14 +3648,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3662,11 +3665,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>55</v>
@@ -3678,14 +3681,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3695,14 +3698,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3711,14 +3714,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3728,11 +3731,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3744,14 +3747,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3761,11 +3764,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3777,14 +3780,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3794,11 +3797,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3817,7 +3820,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3827,11 +3830,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3843,14 +3846,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3860,11 +3863,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3883,7 +3886,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3893,11 +3896,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3916,7 +3919,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3926,11 +3929,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3942,14 +3945,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3959,11 +3962,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -3982,7 +3985,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3992,11 +3995,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4015,7 +4018,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4025,49 +4028,82 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4306.8599999999997</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>241</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>183</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>62</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>94</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4374.8599999999997</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>242</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
         <v>243</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>244</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4481,10 +4517,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -386,6 +386,18 @@
     <t>59.5000</t>
   </si>
   <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -395,6 +407,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -413,9 +434,6 @@
     <t>LIPONA 20MG 10 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -536,6 +554,12 @@
     <t>350.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
@@ -584,84 +608,96 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8246:0</t>
+    <t>8244:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا جرجير 180 مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>189.00</t>
-  </si>
-  <si>
-    <t>94.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>37:0</t>
-  </si>
-  <si>
-    <t>جونتي عمال</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا جرجير 180 مل</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>47:0</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -737,7 +773,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 7:33 PM</t>
+    <t>Sunday, 21 September, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2543,11 +2579,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2559,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2576,11 +2612,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2592,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2609,11 +2645,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2625,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2642,14 +2678,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2658,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2675,14 +2711,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2691,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2708,14 +2744,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2724,14 +2760,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2741,11 +2777,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2764,7 +2800,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2781,7 +2817,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2797,7 +2833,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2814,7 +2850,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2830,7 +2866,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2847,7 +2883,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2863,7 +2899,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2896,7 +2932,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2906,14 +2942,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2922,14 +2958,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2939,14 +2975,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2955,7 +2991,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2972,11 +3008,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -2988,28 +3024,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3021,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3038,11 +3074,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3061,13 +3097,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3078,7 +3114,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3111,7 +3147,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3127,7 +3163,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3137,14 +3173,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3153,31 +3189,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3186,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3203,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3219,31 +3255,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3252,14 +3288,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3269,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3285,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3302,14 +3338,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3325,7 +3361,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3375,7 +3411,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3391,7 +3427,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3401,14 +3437,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3417,31 +3453,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3450,31 +3486,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3483,31 +3519,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3516,14 +3552,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3533,11 +3569,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3549,14 +3585,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3566,11 +3602,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3582,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3599,14 +3635,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>211</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3615,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3632,11 +3668,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3648,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3665,14 +3701,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3681,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3698,14 +3734,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3714,14 +3750,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3731,14 +3767,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>222</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3754,7 +3790,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3797,14 +3833,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3813,14 +3849,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3830,14 +3866,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3846,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3886,7 +3922,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3896,11 +3932,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3912,14 +3948,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3929,11 +3965,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3945,14 +3981,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3962,11 +3998,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -3978,14 +4014,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3995,11 +4031,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4011,14 +4047,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4028,11 +4064,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4044,14 +4080,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4061,49 +4097,181 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>249</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>250</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>62</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>19</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>251</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>239</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>62</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>76</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>252</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>122</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>62</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>142</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>253</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>191</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>62</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>94</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>95</v>
       </c>
-      <c t="s" r="Q88" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4374.8599999999997</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>242</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>243</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>244</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4516.4700000000003</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>254</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>255</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>256</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4522,10 +4690,30 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -554,12 +554,6 @@
     <t>350.0000</t>
   </si>
   <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
@@ -773,7 +767,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 7:35 PM</t>
+    <t>Sunday, 21 September, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3295,7 +3289,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,11 +3299,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3321,14 +3315,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,11 +3332,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3354,14 +3348,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,14 +3365,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,14 +3381,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,11 +3398,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3420,14 +3414,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3431,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3447,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3464,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3480,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3497,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3519,31 +3513,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3546,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,11 +3563,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3585,14 +3579,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,11 +3596,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3625,7 +3619,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,11 +3629,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3651,14 +3645,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,11 +3662,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3684,14 +3678,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,11 +3695,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3717,14 +3711,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3728,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>220</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3767,14 +3761,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3783,14 +3777,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,14 +3794,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,14 +3810,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,11 +3827,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>55</v>
@@ -3849,14 +3843,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,14 +3860,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,14 +3876,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3899,11 +3893,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3915,14 +3909,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3932,11 +3926,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3948,14 +3942,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3965,11 +3959,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3981,14 +3975,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,11 +3992,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4014,14 +4008,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,11 +4025,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4047,14 +4041,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4064,11 +4058,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4080,14 +4074,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4097,11 +4091,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4120,7 +4114,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4130,11 +4124,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4146,14 +4140,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4163,11 +4157,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4179,14 +4173,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4196,82 +4190,49 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="A92" s="7">
-        <v>86</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c t="s" r="C92" s="8">
+      <c r="P92" s="13">
+        <v>4493.4700000000003</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>252</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
         <v>253</v>
       </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c t="s" r="H92" s="9">
-        <v>191</v>
-      </c>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c t="s" r="L92" s="10">
-        <v>62</v>
-      </c>
-      <c r="M92" s="10"/>
-      <c t="s" r="N92" s="8">
-        <v>94</v>
-      </c>
-      <c r="O92" s="8"/>
-      <c t="s" r="P92" s="11">
-        <v>95</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4516.4700000000003</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
         <v>254</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>255</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>256</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4705,15 +4666,10 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -554,6 +563,12 @@
     <t>350.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
@@ -584,12 +599,18 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VERMIZOLE 200MG 6 TAB</t>
   </si>
   <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -767,7 +788,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 7:36 PM</t>
+    <t>Sunday, 21 September, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2101,7 +2122,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2134,7 +2155,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2144,11 +2165,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2160,14 +2181,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2177,14 +2198,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2193,14 +2214,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2210,14 +2231,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2266,7 +2287,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2276,14 +2297,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2292,14 +2313,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2332,7 +2353,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2342,14 +2363,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2358,14 +2379,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2375,14 +2396,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2398,7 +2419,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2408,11 +2429,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2424,14 +2445,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2441,14 +2462,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2457,14 +2478,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2478,10 +2499,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2490,14 +2511,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2507,11 +2528,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2530,7 +2551,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2540,11 +2561,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2556,14 +2577,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2573,14 +2594,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2589,14 +2610,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2606,7 +2627,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2629,7 +2650,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2639,7 +2660,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2662,7 +2683,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,11 +2693,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2688,14 +2709,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2705,11 +2726,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2728,7 +2749,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2738,14 +2759,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2754,14 +2775,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2771,11 +2792,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2787,14 +2808,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2804,14 +2825,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2827,7 +2848,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2844,7 +2865,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2860,7 +2881,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2893,7 +2914,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2910,7 +2931,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2959,7 +2980,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2992,7 +3013,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3002,14 +3023,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3018,7 +3039,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3035,11 +3056,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3051,7 +3072,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3068,11 +3089,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3084,28 +3105,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3124,13 +3145,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3157,7 +3178,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3174,7 +3195,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3190,7 +3211,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3207,7 +3228,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3223,7 +3244,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,14 +3254,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3249,28 +3270,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3289,24 +3310,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3315,14 +3336,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3332,11 +3353,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3348,14 +3369,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3365,14 +3386,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3381,14 +3402,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,14 +3419,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3421,7 +3442,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,14 +3452,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3454,7 +3475,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,14 +3485,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>122</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,11 +3518,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3513,31 +3534,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3546,31 +3567,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3579,31 +3600,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3612,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,11 +3650,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3645,14 +3666,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3662,11 +3683,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3678,14 +3699,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3695,11 +3716,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3718,7 +3739,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3728,14 +3749,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,14 +3765,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3761,11 +3782,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3777,14 +3798,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3794,14 +3815,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,14 +3831,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3827,14 +3848,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>55</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3843,14 +3864,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3860,11 +3881,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3876,14 +3897,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3893,14 +3914,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3909,14 +3930,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3926,14 +3947,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3942,14 +3963,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3959,11 +3980,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3975,14 +3996,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3992,11 +4013,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4008,14 +4029,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4025,11 +4046,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4041,14 +4062,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4058,11 +4079,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4074,14 +4095,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4091,11 +4112,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4107,14 +4128,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4124,11 +4145,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4140,14 +4161,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4157,11 +4178,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4173,14 +4194,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4190,49 +4211,148 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4493.4700000000003</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>252</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>253</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>254</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>256</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>244</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>62</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>76</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>257</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>125</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>62</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>145</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>258</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>194</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>62</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>97</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4577.1700000000001</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>259</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>260</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>261</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4666,10 +4786,25 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEETRIO 30TAB</t>
   </si>
   <si>
@@ -266,9 +275,6 @@
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>8:3</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -692,87 +698,96 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>شاش فازلين 10*10 سم</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>غيار لاصق 10*25</t>
+  </si>
+  <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>47:0</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>شاش فازلين 10*10 سم</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاور جل مود </t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>غيار لاصق 10*25</t>
-  </si>
-  <si>
-    <t>قصافات كبار</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -788,7 +803,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 7:39 PM</t>
+    <t>Sunday, 21 September, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1924,24 +1939,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1950,7 +1965,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1963,7 +1978,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1990,13 +2005,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2023,13 +2038,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2056,7 +2071,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2066,11 +2081,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -2082,14 +2097,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2099,14 +2114,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2139,7 +2154,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2155,7 +2170,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2188,7 +2203,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2198,11 +2213,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2214,14 +2229,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2231,14 +2246,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2247,14 +2262,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2264,14 +2279,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2280,7 +2295,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2297,11 +2312,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2313,14 +2328,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2330,14 +2345,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2346,14 +2361,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2363,11 +2378,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2379,14 +2394,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2396,14 +2411,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2412,14 +2427,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2429,14 +2444,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2445,14 +2460,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2462,7 +2477,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2485,7 +2500,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2495,14 +2510,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2511,14 +2526,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2528,14 +2543,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2551,7 +2566,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2565,7 +2580,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2577,14 +2592,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2594,11 +2609,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2610,14 +2625,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2627,14 +2642,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2643,14 +2658,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2660,11 +2675,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2676,14 +2691,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2693,11 +2708,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2709,14 +2724,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2726,11 +2741,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2749,7 +2764,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2759,11 +2774,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2775,14 +2790,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2792,14 +2807,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2808,14 +2823,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2825,11 +2840,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2848,7 +2863,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2862,10 +2877,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2891,14 +2906,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2907,14 +2922,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2924,11 +2939,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2940,14 +2955,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2957,14 +2972,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2973,7 +2988,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2990,11 +3005,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3006,14 +3021,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3023,11 +3038,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3039,14 +3054,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3056,14 +3071,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3089,11 +3104,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3105,7 +3120,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3122,11 +3137,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3138,28 +3153,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3171,28 +3186,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3204,14 +3219,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3221,14 +3236,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3237,14 +3252,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3254,14 +3269,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3270,14 +3285,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3287,14 +3302,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3303,28 +3318,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3336,31 +3351,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3376,7 +3391,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3386,11 +3401,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3402,14 +3417,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3419,11 +3434,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3452,14 +3467,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3485,11 +3500,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3518,14 +3533,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3551,11 +3566,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3633,31 +3648,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3666,28 +3681,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3699,28 +3714,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3739,21 +3754,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3765,28 +3780,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3798,28 +3813,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3831,31 +3846,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>227</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3871,24 +3886,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3897,31 +3912,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3930,28 +3945,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>55</v>
@@ -3963,31 +3978,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3996,28 +4011,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4029,28 +4044,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4062,28 +4077,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4095,28 +4110,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4128,28 +4143,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4161,28 +4176,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4194,28 +4209,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4227,28 +4242,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4260,28 +4275,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4293,66 +4308,132 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4577.1700000000001</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>259</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>260</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>261</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>262</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>127</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>65</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>147</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>263</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>196</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>65</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>99</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4606.0500000000002</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>264</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>265</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>266</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4801,10 +4882,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>COLD CONTROL 20 TAB</t>
   </si>
   <si>
@@ -383,12 +395,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
@@ -404,9 +410,6 @@
     <t>KEFLEX 1GM 16 TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
@@ -464,6 +467,15 @@
     <t>27.5000</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -596,6 +608,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -647,6 +668,9 @@
     <t>94.5000</t>
   </si>
   <si>
+    <t>ZINCODERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
     <t>برمنجنات بوتاسيوم</t>
   </si>
   <si>
@@ -803,7 +827,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:06 PM</t>
+    <t>Sunday, 21 September, 2025 8:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1890,7 +1914,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1906,7 +1930,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1916,14 +1940,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1932,14 +1956,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1949,14 +1973,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1965,31 +1989,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2011,15 +2035,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2031,28 +2055,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -2064,28 +2088,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -2097,14 +2121,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2114,11 +2138,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2130,14 +2154,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2147,14 +2171,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2163,7 +2187,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2180,14 +2204,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2196,14 +2220,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2213,11 +2237,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2229,14 +2253,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2246,11 +2270,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2262,14 +2286,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2286,7 +2310,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2295,14 +2319,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2319,7 +2343,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2328,7 +2352,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2345,11 +2369,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2361,14 +2385,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2385,7 +2409,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2401,7 +2425,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2411,11 +2435,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2427,14 +2451,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2444,14 +2468,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2477,14 +2501,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2493,14 +2517,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2510,11 +2534,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2526,14 +2550,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2543,14 +2567,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2566,7 +2590,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2576,14 +2600,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2592,14 +2616,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2609,11 +2633,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2625,14 +2649,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2642,11 +2666,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2658,14 +2682,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2675,14 +2699,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2691,14 +2715,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2708,11 +2732,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2724,14 +2748,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2741,11 +2765,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2757,14 +2781,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2774,11 +2798,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2790,14 +2814,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2807,11 +2831,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2823,14 +2847,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2840,14 +2864,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2863,7 +2887,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2873,11 +2897,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2889,14 +2913,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2906,14 +2930,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2922,14 +2946,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2939,14 +2963,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2955,14 +2979,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2972,11 +2996,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2988,14 +3012,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3005,14 +3029,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3021,14 +3045,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3038,14 +3062,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3054,14 +3078,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3071,11 +3095,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3087,14 +3111,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3104,14 +3128,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3120,14 +3144,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3137,14 +3161,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3153,7 +3177,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3170,11 +3194,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3186,28 +3210,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3226,7 +3250,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3236,11 +3260,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3252,31 +3276,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3285,14 +3309,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3302,14 +3326,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3318,14 +3342,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3335,14 +3359,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3358,13 +3382,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3375,7 +3399,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3391,7 +3415,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3401,14 +3425,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3417,31 +3441,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3450,14 +3474,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3467,11 +3491,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3483,14 +3507,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3500,14 +3524,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3516,14 +3540,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3533,14 +3557,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3556,7 +3580,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3573,7 +3597,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3589,7 +3613,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3599,14 +3623,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3622,7 +3646,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3632,14 +3656,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3648,14 +3672,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3665,11 +3689,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3681,31 +3705,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3714,31 +3738,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3747,31 +3771,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3780,28 +3804,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3813,28 +3837,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3846,28 +3870,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3879,31 +3903,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>196</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3912,28 +3936,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3945,31 +3969,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3978,31 +4002,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4011,31 +4035,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4044,28 +4068,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4077,31 +4101,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4110,31 +4134,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4143,28 +4167,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4176,28 +4200,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4209,28 +4233,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4249,21 +4273,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4275,28 +4299,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4308,28 +4332,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4341,28 +4365,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4374,66 +4398,198 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4606.0500000000002</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>264</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>265</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>266</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>267</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>268</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>69</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>19</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>269</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>254</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>69</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>83</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>270</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>129</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>69</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>148</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>271</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>203</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>69</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>103</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4889.0500000000002</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>272</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>273</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>274</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4892,10 +5048,30 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -827,7 +827,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:07 PM</t>
+    <t>Sunday, 21 September, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -827,7 +827,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:08 PM</t>
+    <t>Sunday, 21 September, 2025 8:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -827,7 +827,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:09 PM</t>
+    <t>Sunday, 21 September, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>310.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -209,84 +221,87 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DEETRIO 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>DELTACLAV 457MG/5ML PD. FOR ORAL 80ML SUSP.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
     <t>8:3</t>
   </si>
   <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEETRIO 30TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>DELTACLAV 457MG/5ML PD. FOR ORAL 80ML SUSP.</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DIASTOP SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -650,36 +665,39 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8244:0</t>
+    <t>8243:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
+    <t>ZINCODERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>189.00</t>
-  </si>
-  <si>
-    <t>94.5000</t>
-  </si>
-  <si>
-    <t>ZINCODERM TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>برمنجنات بوتاسيوم</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -722,16 +740,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -740,9 +755,6 @@
     <t>47:0</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -773,9 +785,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -809,9 +818,6 @@
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -827,7 +833,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:10 PM</t>
+    <t>Sunday, 21 September, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1666,7 +1672,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1676,14 +1682,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1692,14 +1698,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1709,14 +1715,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1725,14 +1731,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1742,11 +1748,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1758,14 +1764,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1798,7 +1804,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1808,11 +1814,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1824,14 +1830,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1841,11 +1847,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1857,14 +1863,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1874,14 +1880,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1890,14 +1896,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1914,7 +1920,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1947,7 +1953,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1963,7 +1969,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1973,14 +1979,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1989,14 +1995,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2006,14 +2012,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2022,31 +2028,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2068,15 +2074,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -2088,28 +2094,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -2121,28 +2127,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2154,14 +2160,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2171,11 +2177,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2187,14 +2193,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2204,14 +2210,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2220,7 +2226,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2237,14 +2243,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2253,14 +2259,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2270,11 +2276,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2286,14 +2292,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2303,11 +2309,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2319,14 +2325,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2336,14 +2342,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2359,7 +2365,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2369,14 +2375,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2385,7 +2391,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2402,11 +2408,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2418,14 +2424,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2435,14 +2441,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2451,14 +2457,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2468,11 +2474,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2484,14 +2490,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2501,14 +2507,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2517,14 +2523,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2534,14 +2540,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2550,14 +2556,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2567,11 +2573,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2583,14 +2589,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2600,14 +2606,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2616,14 +2622,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2633,14 +2639,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2649,14 +2655,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2666,11 +2672,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2682,14 +2688,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2699,11 +2705,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2715,14 +2721,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2732,14 +2738,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2748,14 +2754,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2765,11 +2771,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2781,14 +2787,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2798,11 +2804,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2814,14 +2820,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2831,11 +2837,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2847,14 +2853,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2864,11 +2870,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2880,14 +2886,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2897,14 +2903,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2913,14 +2919,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2930,11 +2936,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2946,14 +2952,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2963,14 +2969,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2979,7 +2985,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2996,14 +3002,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3012,14 +3018,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3029,11 +3035,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3045,14 +3051,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3062,11 +3068,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3078,14 +3084,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3095,14 +3101,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3111,7 +3117,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3128,11 +3134,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3144,14 +3150,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3161,11 +3167,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3177,14 +3183,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3194,14 +3200,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3210,7 +3216,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3227,11 +3233,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3243,7 +3249,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3260,11 +3266,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3276,28 +3282,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3309,7 +3315,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3322,15 +3328,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3342,14 +3348,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3359,14 +3365,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3375,14 +3381,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3392,14 +3398,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3408,14 +3414,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3425,14 +3431,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3441,28 +3447,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3474,31 +3480,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3507,14 +3513,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3524,11 +3530,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3557,11 +3563,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3573,14 +3579,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3590,14 +3596,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3623,14 +3629,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3639,14 +3645,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3656,11 +3662,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3672,14 +3678,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3689,14 +3695,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3705,14 +3711,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,11 +3728,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3771,14 +3777,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,14 +3794,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3821,14 +3827,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3837,28 +3843,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3870,28 +3876,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3903,28 +3909,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3936,28 +3942,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3969,28 +3975,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4002,28 +4008,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4035,31 +4041,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>203</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4068,31 +4074,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4101,31 +4107,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4134,31 +4140,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4167,31 +4173,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4200,28 +4206,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4233,20 +4239,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4273,21 +4279,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4299,28 +4305,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4332,28 +4338,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>55</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4365,28 +4371,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4398,28 +4404,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4431,28 +4437,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4471,21 +4477,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4497,28 +4503,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4530,66 +4536,99 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4889.0500000000002</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>272</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>273</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>208</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>73</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>108</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>4979.0500000000002</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
         <v>274</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>275</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>276</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5068,10 +5107,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWIFLAM 12.5MG INFANTS 5 SUPP.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -188,9 +203,6 @@
     <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>COLD CONTROL 20 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
@@ -707,9 +716,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -833,7 +839,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:11 PM</t>
+    <t>Sunday, 21 September, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1524,7 +1530,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1533,14 +1539,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1550,14 +1556,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1566,14 +1572,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1583,14 +1589,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1599,14 +1605,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1616,14 +1622,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1632,14 +1638,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1649,14 +1655,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1665,14 +1671,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1682,14 +1688,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1698,14 +1704,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1715,14 +1721,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1731,14 +1737,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1748,14 +1754,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1764,14 +1770,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1781,14 +1787,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1797,14 +1803,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1814,14 +1820,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1830,14 +1836,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1847,14 +1853,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1863,14 +1869,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1880,14 +1886,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1896,14 +1902,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1913,14 +1919,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1929,14 +1935,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1946,14 +1952,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1962,14 +1968,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1986,7 +1992,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2002,7 +2008,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2019,7 +2025,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2035,7 +2041,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2045,14 +2051,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2068,24 +2074,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2094,20 +2100,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2118,7 +2124,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2134,13 +2140,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2151,7 +2157,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2167,13 +2173,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2184,7 +2190,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2200,7 +2206,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2210,14 +2216,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2226,14 +2232,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2243,14 +2249,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2266,7 +2272,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2299,7 +2305,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2316,7 +2322,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2332,7 +2338,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2342,14 +2348,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2358,14 +2364,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2375,14 +2381,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2391,14 +2397,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2408,14 +2414,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2431,7 +2437,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2448,7 +2454,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2464,7 +2470,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2474,14 +2480,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2490,14 +2496,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2514,7 +2520,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2530,7 +2536,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2540,14 +2546,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2556,14 +2562,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2573,14 +2579,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2596,7 +2602,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2606,14 +2612,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2622,14 +2628,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2639,14 +2645,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2655,14 +2661,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2676,10 +2682,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2688,14 +2694,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2705,14 +2711,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2721,14 +2727,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2738,14 +2744,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2754,14 +2760,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2778,7 +2784,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2794,7 +2800,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2804,14 +2810,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2827,7 +2833,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2837,14 +2843,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2860,7 +2866,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2870,14 +2876,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2886,14 +2892,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2903,14 +2909,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2926,7 +2932,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2936,14 +2942,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2952,14 +2958,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2969,14 +2975,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2985,14 +2991,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3002,14 +3008,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3025,7 +3031,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3042,7 +3048,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3058,7 +3064,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3075,7 +3081,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3091,7 +3097,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3108,7 +3114,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3124,7 +3130,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3141,7 +3147,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3157,7 +3163,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3174,7 +3180,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3190,7 +3196,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3207,7 +3213,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3223,7 +3229,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3233,14 +3239,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3249,14 +3255,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3266,14 +3272,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3282,14 +3288,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3299,14 +3305,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3315,31 +3321,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3355,13 +3361,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3372,7 +3378,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3388,7 +3394,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3405,7 +3411,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3421,7 +3427,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3438,7 +3444,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>63</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3454,7 +3460,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3464,14 +3470,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3480,31 +3486,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3520,13 +3526,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3534,10 +3540,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3546,14 +3552,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3567,10 +3573,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3579,14 +3585,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3603,7 +3609,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3619,7 +3625,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3636,7 +3642,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3652,7 +3658,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3662,14 +3668,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3685,7 +3691,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3695,14 +3701,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3711,14 +3717,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3728,14 +3734,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3751,7 +3757,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3768,7 +3774,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3784,7 +3790,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3794,14 +3800,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>220</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3810,14 +3816,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3831,10 +3837,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>223</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3850,7 +3856,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3860,14 +3866,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3876,31 +3882,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>111</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3909,31 +3915,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3942,31 +3948,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3982,24 +3988,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4008,31 +4014,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4041,31 +4047,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4074,31 +4080,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>230</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4107,31 +4113,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>63</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4140,31 +4146,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4180,24 +4186,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4206,31 +4212,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4239,31 +4245,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4272,31 +4278,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4305,31 +4311,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4338,31 +4344,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4371,31 +4377,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4404,31 +4410,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4444,24 +4450,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4470,31 +4476,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4510,24 +4516,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4536,31 +4542,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4569,66 +4575,99 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>4979.0500000000002</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>274</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>275</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>211</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>76</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>111</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>4994.0500000000002</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
         <v>276</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>277</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>278</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5112,10 +5151,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADVAHAIR HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ADWIFLAM 12.5MG INFANTS 5 SUPP.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>7.50</t>
   </si>
   <si>
@@ -80,9 +92,6 @@
     <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -305,6 +314,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DIXVIT 10.000 I.U. 30 TABS.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -431,6 +449,15 @@
     <t>59.5000</t>
   </si>
   <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>KEFLEX 1GM 16 TABS.</t>
   </si>
   <si>
@@ -839,7 +866,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:13 PM</t>
+    <t>Sunday, 21 September, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1513,7 +1540,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1523,14 +1550,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1539,14 +1566,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1556,14 +1583,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1579,7 +1606,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1596,7 +1623,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1612,7 +1639,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1622,14 +1649,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1638,14 +1665,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1662,7 +1689,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1678,7 +1705,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1695,7 +1722,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1711,7 +1738,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1721,14 +1748,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1737,14 +1764,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1761,7 +1788,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1777,7 +1804,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1794,7 +1821,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1810,7 +1837,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1827,7 +1854,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1843,7 +1870,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1853,14 +1880,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1869,14 +1896,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1886,14 +1913,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1902,14 +1929,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1919,14 +1946,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1942,7 +1969,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1959,7 +1986,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1975,7 +2002,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1992,7 +2019,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2008,7 +2035,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2025,7 +2052,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2041,7 +2068,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2058,7 +2085,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2074,7 +2101,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2084,14 +2111,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2107,24 +2134,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2133,20 +2160,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2157,7 +2184,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2173,13 +2200,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2190,7 +2217,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2206,13 +2233,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2223,7 +2250,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2239,7 +2266,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2249,14 +2276,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2265,14 +2292,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2282,11 +2309,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2305,7 +2332,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2322,7 +2349,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2355,7 +2382,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2371,7 +2398,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2381,14 +2408,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2397,14 +2424,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2414,14 +2441,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2430,14 +2457,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2447,14 +2474,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2463,14 +2490,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2480,14 +2507,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2503,7 +2530,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2513,14 +2540,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2529,14 +2556,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2546,14 +2573,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2562,14 +2589,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2579,14 +2606,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2595,14 +2622,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2612,14 +2639,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2628,14 +2655,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2645,14 +2672,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2661,14 +2688,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2678,14 +2705,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2701,7 +2728,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2711,14 +2738,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2734,7 +2761,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2744,14 +2771,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2760,14 +2787,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2777,14 +2804,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2793,14 +2820,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2810,14 +2837,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2826,14 +2853,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2843,14 +2870,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2866,7 +2893,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2883,7 +2910,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2899,7 +2926,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2909,14 +2936,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2925,14 +2952,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2942,14 +2969,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2958,14 +2985,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2975,14 +3002,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2991,14 +3018,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3008,14 +3035,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3024,14 +3051,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3041,14 +3068,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3057,14 +3084,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3074,14 +3101,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3090,14 +3117,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3107,14 +3134,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3130,7 +3157,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3147,7 +3174,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3163,7 +3190,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3180,7 +3207,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3196,7 +3223,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3213,7 +3240,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3229,7 +3256,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3246,7 +3273,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3262,7 +3289,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3272,14 +3299,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3288,14 +3315,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3305,14 +3332,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3321,14 +3348,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3338,14 +3365,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3354,31 +3381,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3387,7 +3414,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3404,14 +3431,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3420,14 +3447,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3437,14 +3464,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3460,13 +3487,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3493,7 +3520,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3503,14 +3530,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3519,31 +3546,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3552,14 +3579,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3569,14 +3596,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3585,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3602,14 +3629,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3625,13 +3652,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3642,7 +3669,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3658,7 +3685,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3672,10 +3699,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3684,14 +3711,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,14 +3728,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3724,7 +3751,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,14 +3761,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3750,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3767,14 +3794,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3783,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,14 +3827,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3816,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3833,14 +3860,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3849,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3866,14 +3893,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3882,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3899,14 +3926,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3915,31 +3942,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,20 +3975,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3969,10 +3996,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3981,31 +4008,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4021,24 +4048,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4047,31 +4074,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4080,31 +4107,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4113,31 +4140,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4146,28 +4173,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>117</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4179,28 +4206,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4212,7 +4239,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4225,18 +4252,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4245,31 +4272,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4278,31 +4305,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>125</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4318,13 +4345,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4335,7 +4362,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4351,24 +4378,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4377,31 +4404,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4410,31 +4437,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4443,31 +4470,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4476,31 +4503,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4509,31 +4536,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4542,31 +4569,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4575,31 +4602,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4608,66 +4635,165 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>4994.0500000000002</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>276</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>277</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>278</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>282</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>43</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>79</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>93</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>283</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>143</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>79</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>165</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>284</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>220</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>79</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>117</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5208.1499999999996</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>285</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>286</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>287</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5156,10 +5282,25 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -695,7 +695,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -779,15 +779,18 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>47:0</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -866,7 +869,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:14 PM</t>
+    <t>Sunday, 21 September, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2299,7 +2302,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2313,10 +2316,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -3916,7 +3919,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3933,7 +3936,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4296,7 +4299,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,7 +4329,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4338,7 +4341,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4355,11 +4358,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4371,7 +4374,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4388,11 +4391,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4404,7 +4407,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4421,11 +4424,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4437,7 +4440,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4454,11 +4457,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4470,7 +4473,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4487,11 +4490,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4503,14 +4506,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4520,11 +4523,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4536,7 +4539,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4569,14 +4572,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4602,7 +4605,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4635,14 +4638,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4668,7 +4671,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4701,7 +4704,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4734,7 +4737,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4763,13 +4766,13 @@
     </row>
     <row r="106" ht="25.5" customHeight="1">
       <c r="P106" s="13">
-        <v>5208.1499999999996</v>
+        <v>5239.8599999999997</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
       <c t="s" r="A107" s="14">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4777,13 +4780,13 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c t="s" r="G107" s="15">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="16"/>
       <c t="s" r="K107" s="17">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -869,7 +869,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:15 PM</t>
+    <t>Sunday, 21 September, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -392,103 +392,106 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:3</t>
   </si>
   <si>
     <t>15.8400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>HI-POTENCY FORMULA 30 TABS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>KEFLEX 1GM 16 TABS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>2:3</t>
   </si>
   <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
@@ -3042,7 +3045,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3054,7 +3057,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3071,11 +3074,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3087,7 +3090,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3120,7 +3123,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3137,7 +3140,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3153,7 +3156,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3170,11 +3173,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3186,7 +3189,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3203,11 +3206,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3219,7 +3222,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3236,11 +3239,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3252,7 +3255,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3269,11 +3272,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3285,7 +3288,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3302,11 +3305,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3318,7 +3321,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3335,11 +3338,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3351,7 +3354,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3368,11 +3371,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3384,7 +3387,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3405,7 +3408,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3417,7 +3420,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3450,7 +3453,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3483,7 +3486,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3500,11 +3503,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3516,7 +3519,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3533,11 +3536,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3549,7 +3552,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3566,11 +3569,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>112</v>
@@ -3582,7 +3585,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3599,11 +3602,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3615,7 +3618,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3632,11 +3635,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3648,7 +3651,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3665,11 +3668,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3681,7 +3684,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3698,7 +3701,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,11 +3734,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3747,7 +3750,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3764,11 +3767,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3780,7 +3783,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3797,11 +3800,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3830,7 +3833,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3846,7 +3849,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3879,7 +3882,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3896,11 +3899,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3912,7 +3915,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3929,11 +3932,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>112</v>
@@ -3945,14 +3948,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3978,7 +3981,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3995,11 +3998,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4011,7 +4014,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4044,14 +4047,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4077,14 +4080,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,7 +4097,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,11 +4130,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4143,7 +4146,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4160,11 +4163,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4176,7 +4179,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4209,7 +4212,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4226,11 +4229,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4242,7 +4245,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4275,7 +4278,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4292,11 +4295,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4325,11 +4328,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4341,7 +4344,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4358,11 +4361,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4391,11 +4394,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4407,7 +4410,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4424,11 +4427,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4440,7 +4443,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4457,11 +4460,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4473,7 +4476,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4490,11 +4493,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4506,14 +4509,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,11 +4526,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4539,7 +4542,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4556,7 +4559,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4572,14 +4575,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4589,7 +4592,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4605,14 +4608,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4622,7 +4625,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4638,14 +4641,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4671,7 +4674,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4704,7 +4707,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4721,7 +4724,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4737,14 +4740,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4766,13 +4769,13 @@
     </row>
     <row r="106" ht="25.5" customHeight="1">
       <c r="P106" s="13">
-        <v>5239.8599999999997</v>
+        <v>5247.7799999999997</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
       <c t="s" r="A107" s="14">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4780,13 +4783,13 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c t="s" r="G107" s="15">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="16"/>
       <c t="s" r="K107" s="17">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -872,7 +872,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:17 PM</t>
+    <t>Sunday, 21 September, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ARTHFREE 20MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -389,6 +398,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -512,6 +530,15 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -641,6 +668,9 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>TRILLERG EYE DROPS 10 ML</t>
+  </si>
+  <si>
     <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
@@ -776,6 +806,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -872,7 +905,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:28 PM</t>
+    <t>Sunday, 21 September, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1645,7 +1678,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1678,7 +1711,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1688,11 +1721,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>25</v>
@@ -1704,14 +1737,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1728,7 +1761,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1777,7 +1810,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1787,11 +1820,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1803,14 +1836,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1827,7 +1860,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1843,7 +1876,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1860,7 +1893,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1876,7 +1909,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1909,7 +1942,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1919,11 +1952,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1935,14 +1968,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1952,11 +1985,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1968,14 +2001,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1985,11 +2018,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2008,7 +2041,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2025,7 +2058,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2041,7 +2074,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2058,7 +2091,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2074,7 +2107,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2091,7 +2124,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2124,7 +2157,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2140,7 +2173,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2150,14 +2183,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2173,24 +2206,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2199,7 +2232,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2212,7 +2245,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2239,13 +2272,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2272,13 +2305,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2315,14 +2348,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2331,7 +2364,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2348,14 +2381,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2388,7 +2421,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2404,7 +2437,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2437,7 +2470,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2470,7 +2503,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2480,11 +2513,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2496,14 +2529,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2513,14 +2546,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2529,14 +2562,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2546,14 +2579,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>115</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2602,7 +2635,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2612,14 +2645,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2628,14 +2661,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2668,7 +2701,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2678,14 +2711,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2694,14 +2727,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2711,14 +2744,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2727,14 +2760,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2744,14 +2777,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2760,14 +2793,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2777,14 +2810,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2810,11 +2843,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2833,7 +2866,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2843,14 +2876,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2859,14 +2892,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2876,11 +2909,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2892,14 +2925,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2909,14 +2942,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2925,14 +2958,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2949,7 +2982,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2965,7 +2998,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2975,7 +3008,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2998,7 +3031,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3041,7 +3074,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3064,7 +3097,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3097,7 +3130,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3107,14 +3140,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3123,14 +3156,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3140,14 +3173,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3156,14 +3189,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3173,14 +3206,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3189,14 +3222,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3206,11 +3239,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3229,7 +3262,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3246,7 +3279,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3262,7 +3295,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3279,7 +3312,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3295,7 +3328,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3312,7 +3345,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3328,7 +3361,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3345,7 +3378,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3361,7 +3394,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3378,7 +3411,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3394,7 +3427,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3404,14 +3437,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3420,14 +3453,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3437,14 +3470,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3453,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3470,14 +3503,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3486,28 +3519,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3519,14 +3552,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3536,11 +3569,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3552,14 +3585,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3569,14 +3602,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3592,13 +3625,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3609,7 +3642,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3625,7 +3658,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3635,11 +3668,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3651,31 +3684,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3684,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3701,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3717,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3734,14 +3767,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3757,13 +3790,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3774,7 +3807,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3790,7 +3823,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3804,10 +3837,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3816,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3833,11 +3866,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3849,14 +3882,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3866,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3889,7 +3922,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3922,7 +3955,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3939,7 +3972,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3969,10 +4002,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3981,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3998,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4014,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4031,14 +4064,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4047,31 +4080,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4080,31 +4113,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4113,31 +4146,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4153,21 +4186,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4179,28 +4212,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4212,28 +4245,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4245,31 +4278,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>243</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4278,31 +4311,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4311,31 +4344,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4351,13 +4384,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4368,7 +4401,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4384,24 +4417,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4410,31 +4443,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4443,31 +4476,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4476,7 +4509,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4489,18 +4522,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4509,20 +4542,20 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4549,21 +4582,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4575,28 +4608,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4608,28 +4641,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4641,28 +4674,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4674,28 +4707,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4707,28 +4740,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>143</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4740,66 +4773,198 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5247.7799999999997</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>287</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>288</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>289</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>293</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>294</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>82</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>27</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>295</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>46</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>82</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>96</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>296</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>149</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>82</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>172</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>297</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>231</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>82</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>120</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5496.9099999999999</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>298</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>299</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>300</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5303,10 +5468,30 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -905,7 +905,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:32 PM</t>
+    <t>Sunday, 21 September, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -905,7 +905,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:43 PM</t>
+    <t>Sunday, 21 September, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -905,7 +905,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 8:55 PM</t>
+    <t>Sunday, 21 September, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -905,7 +905,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 9:05 PM</t>
+    <t>Sunday, 21 September, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -245,6 +245,18 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 100MG 5 SUPP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -458,9 +470,6 @@
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>59.50</t>
   </si>
   <si>
@@ -905,7 +914,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 9:09 PM</t>
+    <t>Sunday, 21 September, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2216,14 +2225,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2232,31 +2241,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2278,15 +2287,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2298,28 +2307,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2331,28 +2340,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2364,7 +2373,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2381,14 +2390,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2397,7 +2406,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2414,14 +2423,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2430,7 +2439,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2480,11 +2489,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2496,14 +2505,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2513,11 +2522,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2529,14 +2538,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2586,7 +2595,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2619,7 +2628,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2628,7 +2637,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2645,11 +2654,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2685,7 +2694,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2701,7 +2710,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2711,11 +2720,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2727,7 +2736,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2744,11 +2753,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2810,14 +2819,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2843,11 +2852,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2876,14 +2885,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2899,7 +2908,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2942,11 +2951,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2975,11 +2984,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2998,7 +3007,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3015,7 +3024,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3031,7 +3040,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3064,7 +3073,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3074,7 +3083,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3097,7 +3106,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3107,7 +3116,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3130,7 +3139,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3140,7 +3149,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3163,7 +3172,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3173,7 +3182,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3196,7 +3205,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3222,7 +3231,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3239,11 +3248,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3255,14 +3264,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3272,14 +3281,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3295,7 +3304,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3345,7 +3354,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3361,7 +3370,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3394,7 +3403,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3427,7 +3436,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3444,7 +3453,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3493,7 +3502,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3526,7 +3535,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,14 +3545,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3552,7 +3561,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3569,11 +3578,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3585,7 +3594,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3602,11 +3611,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3618,28 +3627,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3658,13 +3667,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3691,7 +3700,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3708,7 +3717,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3724,7 +3733,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3741,7 +3750,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3757,7 +3766,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3783,28 +3792,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3823,13 +3832,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3837,10 +3846,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3849,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3955,7 +3964,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3972,7 +3981,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3988,7 +3997,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3998,14 +4007,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4021,7 +4030,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,11 +4040,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4087,7 +4096,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4104,7 +4113,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4120,7 +4129,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>243</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4146,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4167,10 +4176,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>246</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4186,7 +4195,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,14 +4205,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4212,28 +4221,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4245,28 +4254,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4291,15 +4300,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4311,28 +4320,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4351,21 +4360,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4377,28 +4386,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>124</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4417,24 +4426,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4443,7 +4452,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4456,18 +4465,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4483,24 +4492,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4516,17 +4525,17 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4549,13 +4558,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4566,7 +4575,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4582,13 +4591,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4615,13 +4624,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4648,21 +4657,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4674,28 +4683,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4707,28 +4716,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4740,24 +4749,24 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4773,24 +4782,24 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4806,28 +4815,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4839,28 +4848,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>46</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4872,28 +4881,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4905,66 +4914,99 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5496.9099999999999</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>298</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>299</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>300</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>234</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>86</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>124</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5517.9099999999999</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>301</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>302</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>303</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5488,10 +5530,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -308,6 +308,15 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -368,9 +377,6 @@
     <t>31.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
   </si>
   <si>
@@ -533,6 +539,21 @@
     <t>LIPONA 20MG 10 F.C.TAB.</t>
   </si>
   <si>
+    <t>MEDEXAFLAM 15MG 12 SUPP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>-26.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -593,6 +614,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -737,168 +767,174 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8243:0</t>
+    <t>8240:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
+    <t>ZINCODERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا جرجير 180 مل</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاته سيليكون </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>شاش فازلين 10*10 سم</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>غيار لاصق 10*25</t>
+  </si>
+  <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>189.00</t>
-  </si>
-  <si>
-    <t>94.5000</t>
-  </si>
-  <si>
-    <t>ZINCODERM TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>برمنجنات بوتاسيوم</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>37:0</t>
-  </si>
-  <si>
-    <t>جونتي عمال</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا جرجير 180 مل</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>47:0</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>شاش فازلين 10*10 سم</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاور جل مود </t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>غيار لاصق 10*25</t>
-  </si>
-  <si>
-    <t>قصافات كبار</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -914,7 +950,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 9:33 PM</t>
+    <t>Sunday, 21 September, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2413,7 +2449,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2427,10 +2463,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2439,7 +2475,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2456,11 +2492,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2472,7 +2508,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2489,11 +2525,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2505,7 +2541,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2522,11 +2558,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2538,7 +2574,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2555,11 +2591,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2571,14 +2607,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2588,11 +2624,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2604,14 +2640,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2621,14 +2657,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2637,7 +2673,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2654,11 +2690,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2670,7 +2706,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2687,11 +2723,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2703,14 +2739,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2720,11 +2756,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2736,7 +2772,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2753,11 +2789,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2769,7 +2805,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2786,11 +2822,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2802,14 +2838,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2823,10 +2859,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2835,14 +2871,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2852,11 +2888,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2868,7 +2904,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2889,7 +2925,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2901,14 +2937,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2918,11 +2954,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2934,7 +2970,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2951,7 +2987,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2967,7 +3003,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3000,7 +3036,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3017,11 +3053,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3033,7 +3069,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3050,11 +3086,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3066,7 +3102,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3083,11 +3119,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3099,14 +3135,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3120,7 +3156,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3132,7 +3168,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3149,11 +3185,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3165,14 +3201,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3182,11 +3218,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3198,7 +3234,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3215,11 +3251,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3231,7 +3267,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3248,11 +3284,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3264,14 +3300,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3281,14 +3317,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3297,14 +3333,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3314,14 +3350,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3330,14 +3366,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,11 +3383,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3363,7 +3399,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3380,14 +3416,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,14 +3432,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3413,11 +3449,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3429,14 +3465,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,11 +3482,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3462,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3479,14 +3515,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3495,7 +3531,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3512,11 +3548,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3528,14 +3564,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,14 +3581,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3561,14 +3597,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3614,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3630,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,14 +3647,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3627,7 +3663,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3644,11 +3680,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3660,28 +3696,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3693,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,11 +3746,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3726,31 +3762,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,7 +3795,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3776,14 +3812,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,14 +3828,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3845,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,31 +3861,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3911,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,28 +3927,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3924,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,11 +3977,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3957,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,14 +4010,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3990,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,14 +4043,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4023,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,14 +4076,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4089,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4142,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,14 +4158,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4175,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4191,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>246</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,14 +4224,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4241,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,14 +4257,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4274,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,31 +4290,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,28 +4323,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4320,14 +4356,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,11 +4373,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4353,14 +4389,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,11 +4406,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4386,14 +4422,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,11 +4439,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4419,7 +4455,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4436,11 +4472,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4452,14 +4488,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,14 +4505,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4485,14 +4521,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,14 +4538,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,14 +4554,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,14 +4571,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,7 +4587,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4568,14 +4604,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,14 +4637,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4617,14 +4653,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>141</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,14 +4670,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,14 +4686,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4690,7 +4726,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4736,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4716,14 +4752,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4756,7 +4792,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,11 +4802,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4782,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,11 +4835,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>19</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4815,14 +4851,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,11 +4868,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4848,14 +4884,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,11 +4901,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>28</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4881,14 +4917,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,14 +4934,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4914,14 +4950,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4931,11 +4967,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4947,14 +4983,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>234</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4964,49 +5000,181 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5517.9099999999999</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>301</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>302</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>303</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>308</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>309</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>86</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>27</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>310</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>46</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>86</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>103</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>311</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>79</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>86</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>182</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>312</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>244</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>86</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>126</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5631.6199999999999</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>313</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>314</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>315</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5535,10 +5703,30 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -248,9 +260,6 @@
     <t>DECLOPHEN 100MG 5 SUPP</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -605,6 +614,15 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -716,9 +734,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>10.8900</t>
   </si>
   <si>
@@ -950,7 +965,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 9:36 PM</t>
+    <t>Sunday, 21 September, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1806,7 +1821,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1822,7 +1837,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1832,14 +1847,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1848,7 +1863,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1865,11 +1880,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1881,14 +1896,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1921,7 +1936,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1931,14 +1946,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1947,14 +1962,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1964,14 +1979,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1980,14 +1995,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1997,11 +2012,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2053,7 +2068,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2063,11 +2078,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2079,14 +2094,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2096,11 +2111,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2112,14 +2127,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2129,14 +2144,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2162,14 +2177,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2178,14 +2193,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2195,14 +2210,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2211,7 +2226,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2228,14 +2243,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2284,7 +2299,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2317,24 +2332,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2343,7 +2358,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2356,7 +2371,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2383,13 +2398,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2416,13 +2431,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2449,7 +2464,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2532,7 +2547,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2548,7 +2563,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2581,7 +2596,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2614,7 +2629,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2624,11 +2639,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2640,14 +2655,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2657,14 +2672,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2697,7 +2712,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2746,7 +2761,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2756,14 +2771,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2772,14 +2787,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2845,7 +2860,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2855,14 +2870,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2871,14 +2886,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2888,14 +2903,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2911,7 +2926,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2921,11 +2936,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2937,14 +2952,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2954,14 +2969,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2970,14 +2985,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2991,10 +3006,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3003,14 +3018,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3020,11 +3035,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3036,14 +3051,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3053,11 +3068,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3076,7 +3091,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3093,7 +3108,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3109,7 +3124,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3142,7 +3157,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3152,7 +3167,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3175,7 +3190,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3185,7 +3200,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3208,7 +3223,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3218,7 +3233,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3241,7 +3256,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3251,7 +3266,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3274,7 +3289,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3284,14 +3299,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3300,14 +3315,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3333,14 +3348,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3350,14 +3365,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3366,14 +3381,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3383,14 +3398,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3406,7 +3421,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3456,7 +3471,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3472,7 +3487,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3505,7 +3520,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3538,7 +3553,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3555,7 +3570,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3571,7 +3586,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3604,7 +3619,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3637,7 +3652,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3654,7 +3669,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3670,7 +3685,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3680,14 +3695,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3696,14 +3711,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,14 +3728,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3729,7 +3744,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3746,11 +3761,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3762,28 +3777,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3795,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3812,11 +3827,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3835,13 +3850,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3852,7 +3867,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,7 +3900,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3901,7 +3916,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3911,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3927,31 +3942,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3960,14 +3975,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3977,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3993,28 +4008,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4026,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,11 +4058,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4059,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4092,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4158,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,14 +4190,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4191,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4208,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4224,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4241,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4257,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4274,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4290,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4340,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>126</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4356,20 +4371,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4380,7 +4395,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4396,21 +4411,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4422,28 +4437,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4462,21 +4477,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4495,21 +4510,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4521,28 +4536,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>203</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4554,31 +4569,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4587,31 +4602,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4620,7 +4635,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4633,18 +4648,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4653,31 +4668,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4699,18 +4714,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4732,18 +4747,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4752,31 +4767,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4792,21 +4807,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>143</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4818,28 +4833,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4851,28 +4866,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4884,20 +4899,20 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4930,18 +4945,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4963,15 +4978,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4983,31 +4998,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5016,28 +5031,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5049,28 +5064,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5082,28 +5097,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5115,66 +5130,132 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5631.6199999999999</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>313</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>314</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>315</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>316</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>36</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>89</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>185</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>317</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>249</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>89</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>129</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5799.6199999999999</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>318</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>319</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>320</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5723,10 +5804,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -509,6 +509,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -746,6 +755,12 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>UNIFUNGI 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -791,13 +806,16 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8240:0</t>
+    <t>8232:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
@@ -965,7 +983,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 9:37 PM</t>
+    <t>Sunday, 21 September, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3190,7 +3208,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,7 +3218,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3223,7 +3241,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3233,7 +3251,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3256,7 +3274,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,7 +3284,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3289,7 +3307,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3299,7 +3317,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3322,7 +3340,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3332,14 +3350,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3381,14 +3399,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3398,14 +3416,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3431,14 +3449,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3454,7 +3472,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3504,7 +3522,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3520,7 +3538,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3553,7 +3571,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3586,7 +3604,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3619,7 +3637,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3636,7 +3654,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3652,7 +3670,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3669,7 +3687,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3685,7 +3703,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3702,7 +3720,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3718,7 +3736,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3751,7 +3769,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,14 +3779,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,7 +3795,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3794,11 +3812,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3810,7 +3828,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3827,11 +3845,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3843,28 +3861,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3883,13 +3901,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3916,7 +3934,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3933,7 +3951,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3949,7 +3967,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3966,7 +3984,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3982,7 +4000,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,14 +4010,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4008,28 +4026,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4048,13 +4066,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4062,10 +4080,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4074,14 +4092,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,14 +4109,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4142,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4147,7 +4165,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,7 +4175,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4180,7 +4198,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4197,7 +4215,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4213,7 +4231,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,14 +4241,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4239,14 +4257,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,14 +4340,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>258</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4338,14 +4356,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4373,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,14 +4406,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4404,14 +4422,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4439,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,31 +4455,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4470,28 +4488,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4503,14 +4521,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,11 +4538,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4536,14 +4554,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,11 +4571,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4569,14 +4587,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,11 +4604,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4602,7 +4620,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4619,11 +4637,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4670,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,14 +4686,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4703,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,7 +4719,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4718,11 +4736,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>146</v>
@@ -4734,14 +4752,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4769,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,7 +4785,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4784,14 +4802,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,14 +4818,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4817,14 +4835,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,14 +4851,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4850,14 +4868,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,14 +4884,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>146</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,11 +4901,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>106</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4906,7 +4924,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4939,7 +4957,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,11 +4967,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4965,14 +4983,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>50</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,11 +5000,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4998,7 +5016,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5015,14 +5033,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,14 +5049,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,11 +5066,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5064,14 +5082,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,14 +5099,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5097,14 +5115,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,11 +5132,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5130,14 +5148,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>50</v>
+        <v>318</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,11 +5165,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5163,14 +5181,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,11 +5198,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5196,14 +5214,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,49 +5231,115 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>322</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>36</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>89</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>188</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>323</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>254</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>89</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>129</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>130</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5799.6199999999999</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>318</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>319</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>320</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6012.6199999999999</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>324</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>325</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>326</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5814,10 +5898,20 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -74,12 +74,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ALBOTHYL 1.8% VAG. JEL 40 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -158,6 +167,15 @@
     <t>310.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -167,9 +185,6 @@
     <t>43.00</t>
   </si>
   <si>
-    <t>43.0000</t>
-  </si>
-  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -257,6 +272,18 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
     <t>DECLOPHEN 100MG 5 SUPP</t>
   </si>
   <si>
@@ -278,9 +305,6 @@
     <t>DEETRIO 30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -395,6 +419,18 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>DURICEF 250 MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>EGY TOTAVIT SYRUP 100 ML</t>
   </si>
   <si>
@@ -425,6 +461,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">EVAL CARE  GEL</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
   </si>
   <si>
@@ -455,6 +500,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -572,6 +626,12 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>MEDEXAFLAM 15MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -662,12 +722,21 @@
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>59.4000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PEDICORT 5MG/5ML SYP. 100 ML</t>
+  </si>
+  <si>
     <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -683,12 +752,6 @@
     <t>RX MASSAGE SPRAY</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t>SEDATUSS 20MG/5ML 100 ML SUSP.</t>
   </si>
   <si>
@@ -773,9 +836,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -806,16 +866,16 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8232:0</t>
+    <t>8230:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
@@ -983,7 +1043,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 9:45 PM</t>
+    <t>Sunday, 21 September, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1707,7 +1767,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1716,14 +1776,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1733,14 +1793,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1756,7 +1816,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1773,7 +1833,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1789,7 +1849,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1806,7 +1866,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1822,7 +1882,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1832,14 +1892,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1848,14 +1908,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1865,14 +1925,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1881,14 +1941,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1905,7 +1965,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1954,7 +2014,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1964,11 +2024,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1980,7 +2040,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1997,14 +2057,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2013,14 +2073,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2034,7 +2094,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2046,7 +2106,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2063,14 +2123,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2079,14 +2139,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2096,11 +2156,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2112,14 +2172,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2129,11 +2189,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2152,7 +2212,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2162,11 +2222,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2178,14 +2238,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2195,14 +2255,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2211,14 +2271,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2228,11 +2288,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2244,14 +2304,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2261,14 +2321,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2277,14 +2337,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2294,11 +2354,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2310,14 +2370,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2327,14 +2387,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2343,14 +2403,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2360,14 +2420,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2376,31 +2436,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2409,28 +2469,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2442,31 +2502,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2475,7 +2535,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2488,15 +2548,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2508,31 +2568,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2541,31 +2601,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2574,7 +2634,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2591,14 +2651,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2607,14 +2667,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2624,14 +2684,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2640,7 +2700,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2657,14 +2717,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2673,14 +2733,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2690,14 +2750,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2706,14 +2766,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2723,14 +2783,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2739,7 +2799,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2756,14 +2816,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2772,14 +2832,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2789,14 +2849,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2805,14 +2865,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2822,14 +2882,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2838,14 +2898,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2855,14 +2915,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2871,14 +2931,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2888,14 +2948,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2904,14 +2964,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2921,14 +2981,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2937,14 +2997,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2954,14 +3014,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2970,14 +3030,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2987,14 +3047,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3010,24 +3070,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3036,14 +3096,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3053,14 +3113,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3076,7 +3136,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3086,14 +3146,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3102,14 +3162,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3119,11 +3179,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3135,14 +3195,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3152,14 +3212,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3168,14 +3228,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3185,14 +3245,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3201,14 +3261,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3218,14 +3278,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3234,14 +3294,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3251,14 +3311,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3267,14 +3327,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3284,14 +3344,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3307,7 +3367,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3317,14 +3377,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3340,7 +3400,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3357,7 +3417,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3383,14 +3443,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3399,14 +3459,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3416,14 +3476,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>186</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3439,7 +3499,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3449,14 +3509,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3465,14 +3525,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3482,14 +3542,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3498,14 +3558,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3515,14 +3575,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3531,14 +3591,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3548,14 +3608,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3564,14 +3624,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3581,11 +3641,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3597,14 +3657,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3621,7 +3681,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3630,7 +3690,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3647,14 +3707,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3670,7 +3730,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3684,10 +3744,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3696,14 +3756,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3713,14 +3773,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3729,14 +3789,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3746,14 +3806,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3762,14 +3822,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3779,14 +3839,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3795,14 +3855,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3812,7 +3872,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3835,7 +3895,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3845,11 +3905,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3861,7 +3921,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3878,11 +3938,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3894,31 +3954,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3927,14 +3987,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3944,11 +4004,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3960,14 +4020,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3977,14 +4037,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3993,14 +4053,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4010,14 +4070,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4026,14 +4086,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4043,14 +4103,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4059,28 +4119,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4092,14 +4152,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4109,14 +4169,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4125,7 +4185,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4142,11 +4202,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4158,14 +4218,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4175,14 +4235,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4191,31 +4251,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4224,14 +4284,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4241,14 +4301,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4264,7 +4324,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4281,7 +4341,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4297,7 +4357,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4307,14 +4367,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4330,7 +4390,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4340,11 +4400,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4363,13 +4423,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4380,7 +4440,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4396,7 +4456,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4410,10 +4470,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>263</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4422,14 +4482,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4439,14 +4499,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>268</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4455,14 +4515,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,14 +4532,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4488,14 +4548,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4505,14 +4565,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4521,31 +4581,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4554,31 +4614,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4587,28 +4647,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4620,28 +4680,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4653,7 +4713,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4666,18 +4726,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4686,31 +4746,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4719,31 +4779,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>146</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4759,24 +4819,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4785,7 +4845,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4798,18 +4858,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>141</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4831,18 +4891,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4851,31 +4911,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4884,28 +4944,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4917,28 +4977,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4950,28 +5010,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4990,21 +5050,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5016,7 +5076,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5029,18 +5089,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5049,31 +5109,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5082,7 +5142,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5095,18 +5155,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5115,31 +5175,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5148,31 +5208,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5181,28 +5241,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5214,28 +5274,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>106</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>147</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5247,28 +5307,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>113</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5280,66 +5340,363 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>130</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6012.6199999999999</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>324</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>325</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>326</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>329</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>12</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>88</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>321</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>330</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>331</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>88</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>332</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>334</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>12</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>88</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>299</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>335</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>336</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>88</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>299</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>337</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>338</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>88</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>299</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>339</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>340</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>88</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>30</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>341</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>56</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>88</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>114</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>342</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>39</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>88</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>208</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>343</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>137</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>88</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>141</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>6613.79</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>344</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>345</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>346</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5908,10 +6265,55 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
   </si>
   <si>
@@ -548,12 +557,6 @@
     <t>HI-POTENCY FORMULA 30 TABS.</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
     <t>KEFLEX 1GM 16 TABS.</t>
   </si>
   <si>
@@ -611,6 +614,9 @@
     <t>LIPONA 20MG 10 F.C.TAB.</t>
   </si>
   <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
     <t>MEDEXAFLAM 15MG 12 SUPP.</t>
   </si>
   <si>
@@ -1043,7 +1049,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 9:55 PM</t>
+    <t>Sunday, 21 September, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2344,7 +2350,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2361,7 +2367,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2377,7 +2383,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2394,7 +2400,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2427,7 +2433,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2443,24 +2449,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2469,20 +2475,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2493,7 +2499,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2509,7 +2515,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2519,14 +2525,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2542,24 +2548,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2581,7 +2587,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2608,13 +2614,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2641,13 +2647,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2674,7 +2680,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2717,14 +2723,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>115</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2757,7 +2763,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2773,7 +2779,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2806,7 +2812,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2839,7 +2845,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2849,11 +2855,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>28</v>
@@ -2865,14 +2871,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2882,14 +2888,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2898,14 +2904,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2922,7 +2928,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2938,7 +2944,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2948,11 +2954,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2964,14 +2970,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3004,7 +3010,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3014,14 +3020,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3030,14 +3036,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3070,13 +3076,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3087,7 +3093,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3103,13 +3109,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3120,7 +3126,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3136,7 +3142,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3146,14 +3152,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3162,14 +3168,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3179,14 +3185,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>162</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3202,7 +3208,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3212,7 +3218,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3235,7 +3241,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3245,11 +3251,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3261,14 +3267,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3278,14 +3284,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3294,14 +3300,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3315,10 +3321,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3327,14 +3333,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3344,11 +3350,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3377,11 +3383,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3400,7 +3406,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3417,7 +3423,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3433,7 +3439,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3443,11 +3449,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3476,11 +3482,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3492,14 +3498,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3509,11 +3515,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3525,14 +3531,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3542,11 +3548,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3558,14 +3564,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3575,11 +3581,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3591,14 +3597,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3608,11 +3614,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3624,14 +3630,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3641,14 +3647,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3664,7 +3670,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3674,14 +3680,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3690,14 +3696,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3707,11 +3713,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3723,14 +3729,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3740,14 +3746,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3756,14 +3762,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3773,11 +3779,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3789,14 +3795,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3806,14 +3812,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3822,14 +3828,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3839,14 +3845,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3855,14 +3861,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3872,14 +3878,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3888,14 +3894,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3905,11 +3911,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3921,14 +3927,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3938,11 +3944,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3954,14 +3960,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3971,14 +3977,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3987,14 +3993,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4004,11 +4010,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4020,7 +4026,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4037,11 +4043,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -4053,14 +4059,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4070,14 +4076,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4086,14 +4092,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4103,11 +4109,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>28</v>
@@ -4119,14 +4125,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4136,14 +4142,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4152,14 +4158,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4169,14 +4175,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4185,14 +4191,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4202,11 +4208,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4218,7 +4224,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4235,11 +4241,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4258,21 +4264,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4291,7 +4297,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4301,11 +4307,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4317,31 +4323,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4350,7 +4356,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4367,14 +4373,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4383,14 +4389,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4400,14 +4406,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4416,31 +4422,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4449,14 +4455,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4466,14 +4472,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4482,28 +4488,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4515,14 +4521,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4532,11 +4538,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4548,14 +4554,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4565,14 +4571,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4581,14 +4587,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4598,14 +4604,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4614,14 +4620,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4631,14 +4637,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4647,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4664,14 +4670,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4680,14 +4686,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4697,14 +4703,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>162</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4713,14 +4719,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4730,14 +4736,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4746,14 +4752,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4763,14 +4769,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4779,14 +4785,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4796,14 +4802,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>288</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4812,14 +4818,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4829,14 +4835,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4845,14 +4851,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4862,14 +4868,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4878,31 +4884,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4911,28 +4917,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4944,28 +4950,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4977,28 +4983,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5010,28 +5016,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5043,7 +5049,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5056,15 +5062,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5083,24 +5089,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5109,31 +5115,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5142,7 +5148,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5155,18 +5161,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5175,31 +5181,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5208,7 +5214,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5221,18 +5227,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5241,31 +5247,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>162</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5274,31 +5280,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5307,28 +5313,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>117</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5340,28 +5346,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5373,28 +5379,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5406,28 +5412,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>56</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5439,7 +5445,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5452,18 +5458,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5472,28 +5478,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5505,31 +5511,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5538,28 +5544,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5571,28 +5577,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>56</v>
+        <v>340</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>114</v>
+        <v>301</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5604,28 +5610,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>39</v>
+        <v>342</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5644,59 +5650,125 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>6613.79</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>344</v>
       </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>39</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>91</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>210</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>345</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>140</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>91</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>144</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6738.29</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
         <v>346</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>347</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>348</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6310,10 +6382,20 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t>19.8000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
@@ -152,9 +161,6 @@
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>87.0000</t>
   </si>
   <si>
@@ -410,13 +416,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
@@ -449,6 +458,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -515,9 +533,6 @@
     <t>180.00</t>
   </si>
   <si>
-    <t>180.0000</t>
-  </si>
-  <si>
     <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -638,6 +653,9 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -662,6 +680,12 @@
     <t>27.5000</t>
   </si>
   <si>
+    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -863,10 +887,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>84.1500</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -908,6 +929,18 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -956,6 +989,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -1013,12 +1049,6 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -1031,9 +1061,6 @@
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1049,7 +1076,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 9:56 PM</t>
+    <t>Sunday, 21 September, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1822,7 +1849,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1839,7 +1866,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1855,7 +1882,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1872,7 +1899,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1888,7 +1915,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1921,7 +1948,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1931,14 +1958,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1947,14 +1974,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1964,14 +1991,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1980,14 +2007,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2004,7 +2031,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2030,11 +2057,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2046,7 +2073,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2063,14 +2090,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2079,14 +2106,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2096,14 +2123,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2112,14 +2139,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2133,10 +2160,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2145,14 +2172,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2162,14 +2189,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2178,14 +2205,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2195,11 +2222,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2228,11 +2255,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2244,14 +2271,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2261,11 +2288,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2294,11 +2321,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2310,14 +2337,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2327,14 +2354,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2343,14 +2370,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2360,11 +2387,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>28</v>
@@ -2376,14 +2403,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2393,14 +2420,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2409,14 +2436,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2426,14 +2453,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2442,7 +2469,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2459,14 +2486,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2475,31 +2502,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2508,31 +2535,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2541,14 +2568,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2558,14 +2585,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2574,31 +2601,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2607,7 +2634,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2620,15 +2647,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2640,28 +2667,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2673,28 +2700,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2706,14 +2733,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,14 +2750,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2739,14 +2766,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2756,14 +2783,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2772,7 +2799,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2789,14 +2816,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2805,14 +2832,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,11 +2849,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>28</v>
@@ -2838,14 +2865,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2855,11 +2882,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>28</v>
@@ -2871,14 +2898,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2888,11 +2915,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>28</v>
@@ -2904,14 +2931,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2921,14 +2948,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2937,14 +2964,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,14 +2981,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>138</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2977,7 +3004,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2987,11 +3014,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3003,14 +3030,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3043,7 +3070,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3053,14 +3080,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3069,14 +3096,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3086,14 +3113,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3102,20 +3129,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3126,7 +3153,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3175,24 +3202,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3201,14 +3228,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,14 +3245,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3234,14 +3261,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3251,14 +3278,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>168</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3274,7 +3301,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3284,11 +3311,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3300,14 +3327,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3321,10 +3348,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3333,7 +3360,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3350,11 +3377,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3366,14 +3393,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3383,14 +3410,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3399,14 +3426,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3416,11 +3443,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3432,14 +3459,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3449,14 +3476,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3465,14 +3492,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3482,14 +3509,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3498,14 +3525,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3515,11 +3542,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3531,14 +3558,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,11 +3575,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3564,7 +3591,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3581,11 +3608,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3597,14 +3624,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3614,11 +3641,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3630,14 +3657,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3647,11 +3674,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3663,14 +3690,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3680,14 +3707,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3696,14 +3723,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,11 +3740,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3729,14 +3756,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3746,14 +3773,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3762,14 +3789,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3779,11 +3806,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3795,14 +3822,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3812,14 +3839,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3828,14 +3855,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,7 +3872,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3868,21 +3895,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3894,14 +3921,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3911,11 +3938,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3927,14 +3954,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3944,14 +3971,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3960,14 +3987,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3977,14 +4004,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3993,7 +4020,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4010,11 +4037,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4026,14 +4053,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4043,14 +4070,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4059,14 +4086,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4076,11 +4103,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4092,14 +4119,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4109,14 +4136,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4125,14 +4152,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,14 +4169,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4158,14 +4185,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4175,11 +4202,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -4191,14 +4218,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,11 +4235,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4224,14 +4251,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4241,14 +4268,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4264,7 +4291,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,14 +4301,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4290,14 +4317,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,14 +4334,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4323,28 +4350,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4356,14 +4383,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,11 +4400,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4389,14 +4416,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,14 +4433,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4429,7 +4456,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4466,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4455,28 +4482,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4488,28 +4515,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4521,14 +4548,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4538,14 +4565,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4554,14 +4581,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4571,14 +4598,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4587,14 +4614,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4604,14 +4631,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4620,31 +4647,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4653,14 +4680,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4697,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>164</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,14 +4713,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,14 +4730,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>33</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4719,14 +4746,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>140</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,14 +4763,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>43</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4752,14 +4779,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,14 +4796,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4792,7 +4819,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,14 +4829,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4818,14 +4845,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4862,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>285</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4851,14 +4878,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4868,14 +4895,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>290</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4884,14 +4911,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4901,14 +4928,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>119</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4917,14 +4944,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4934,14 +4961,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>145</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4950,31 +4977,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4983,31 +5010,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>19</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5016,31 +5043,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>303</v>
+        <v>28</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5049,28 +5076,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5082,28 +5109,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5115,28 +5142,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5148,31 +5175,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5181,31 +5208,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,31 +5241,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5247,31 +5274,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>147</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5280,31 +5307,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5320,24 +5347,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>117</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5353,24 +5380,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5379,31 +5406,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5412,31 +5439,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>56</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5445,7 +5472,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5458,18 +5485,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5491,15 +5518,15 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>334</v>
+        <v>119</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5511,31 +5538,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>234</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5551,21 +5578,21 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>338</v>
+        <v>170</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>19</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5577,28 +5604,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>340</v>
+        <v>58</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5610,28 +5637,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>30</v>
+        <v>335</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>31</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5643,28 +5670,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>56</v>
+        <v>345</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>117</v>
+        <v>308</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>165</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5676,31 +5703,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5709,66 +5736,231 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>140</v>
+        <v>348</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6738.29</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>346</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>347</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>348</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>349</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>326</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>93</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>312</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>350</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>351</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>93</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>33</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>352</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>58</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>93</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>119</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>353</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>42</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>93</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>216</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>354</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>143</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>93</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>147</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7244.5</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>355</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>356</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>357</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6392,10 +6584,35 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -374,6 +374,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>DICLAC 75 MG/3ML 6AMPS.</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -626,6 +635,12 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>LIMITLESS OSTEODENSE TAB</t>
+  </si>
+  <si>
+    <t>47.8500</t>
+  </si>
+  <si>
     <t>LIPONA 20MG 10 F.C.TAB.</t>
   </si>
   <si>
@@ -674,9 +689,6 @@
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
     <t>27.5000</t>
   </si>
   <si>
@@ -791,6 +803,12 @@
     <t>61.0000</t>
   </si>
   <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -869,6 +887,9 @@
     <t>31.00</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
     <t>VERMIZOLE 200MG 6 TAB</t>
   </si>
   <si>
@@ -980,7 +1001,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1010,9 +1031,6 @@
     <t xml:space="preserve">سكاته سيليكون </t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>شاش فازلين 10*10 سم</t>
   </si>
   <si>
@@ -1076,7 +1094,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 10:26 PM</t>
+    <t>Sunday, 21 September, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2839,7 +2857,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2872,7 +2890,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2905,7 +2923,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2938,7 +2956,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2948,11 +2966,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>28</v>
@@ -2964,14 +2982,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2981,14 +2999,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2997,14 +3015,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3037,7 +3055,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3047,11 +3065,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3063,14 +3081,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3103,7 +3121,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3113,14 +3131,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3146,14 +3164,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3202,13 +3220,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3219,7 +3237,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3235,13 +3253,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3252,7 +3270,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3268,7 +3286,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3294,14 +3312,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3311,14 +3329,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>171</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3334,7 +3352,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3344,11 +3362,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3360,14 +3378,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3377,11 +3395,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3393,14 +3411,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3410,14 +3428,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3426,14 +3444,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3447,10 +3465,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3459,14 +3477,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3476,11 +3494,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3492,14 +3510,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3509,11 +3527,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3532,7 +3550,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3542,14 +3560,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3575,11 +3593,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3598,7 +3616,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3631,7 +3649,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3641,7 +3659,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3664,7 +3682,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3674,7 +3692,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3697,7 +3715,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3707,7 +3725,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3730,7 +3748,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3740,7 +3758,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3763,7 +3781,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3773,14 +3791,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3789,28 +3807,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3822,14 +3840,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3839,14 +3857,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3855,14 +3873,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3872,11 +3890,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3888,31 +3906,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3938,14 +3956,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3954,7 +3972,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3967,15 +3985,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3994,7 +4012,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4008,10 +4026,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4020,14 +4038,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4037,14 +4055,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4070,14 +4088,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4103,11 +4121,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4119,14 +4137,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4136,11 +4154,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4152,14 +4170,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4169,11 +4187,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4185,14 +4203,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4202,14 +4220,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4235,11 +4253,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4251,7 +4269,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4268,11 +4286,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>28</v>
@@ -4284,14 +4302,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4301,14 +4319,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4317,14 +4335,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4334,11 +4352,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>28</v>
@@ -4350,14 +4368,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4367,14 +4385,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4390,7 +4408,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4400,14 +4418,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4433,11 +4451,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4449,7 +4467,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4466,11 +4484,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4482,28 +4500,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4515,14 +4533,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4532,11 +4550,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4555,24 +4573,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4581,7 +4599,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4598,14 +4616,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4614,14 +4632,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4631,14 +4649,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4647,31 +4665,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4680,14 +4698,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4697,14 +4715,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4730,11 +4748,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4753,24 +4771,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4786,7 +4804,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4800,7 +4818,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4812,14 +4830,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4829,14 +4847,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4845,14 +4863,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4862,14 +4880,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4878,14 +4896,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4895,14 +4913,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>123</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4911,14 +4929,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4928,14 +4946,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4951,7 +4969,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4968,7 +4986,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4984,7 +5002,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4998,10 +5016,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5010,14 +5028,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5027,14 +5045,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>119</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>297</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5043,14 +5061,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5060,14 +5078,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>119</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5076,14 +5094,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5093,14 +5111,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5109,31 +5127,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5142,31 +5160,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5175,31 +5193,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>28</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5208,28 +5226,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5241,14 +5259,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5258,11 +5276,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5274,14 +5292,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5291,11 +5309,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5307,14 +5325,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5324,11 +5342,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5347,7 +5365,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5357,14 +5375,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5380,7 +5398,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5390,14 +5408,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5406,14 +5424,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5423,14 +5441,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>326</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5439,14 +5457,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>42</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5456,14 +5474,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>245</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5472,7 +5490,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5489,14 +5507,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5505,14 +5523,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>333</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5522,14 +5540,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5538,14 +5556,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5555,14 +5573,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5571,14 +5589,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>170</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5588,14 +5606,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5604,14 +5622,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5621,14 +5639,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5637,14 +5655,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5654,11 +5672,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>335</v>
+        <v>119</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>336</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5670,14 +5688,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>345</v>
+        <v>146</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5687,11 +5705,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5703,14 +5721,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5720,14 +5738,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5736,14 +5754,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>348</v>
+        <v>58</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5753,11 +5771,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5776,7 +5794,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5786,11 +5804,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5819,11 +5837,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5842,7 +5860,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5852,14 +5870,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>119</v>
+        <v>319</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5875,7 +5893,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5885,11 +5903,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5901,14 +5919,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5918,49 +5936,181 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>7244.5</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>355</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
         <v>356</v>
       </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
         <v>357</v>
       </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>93</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>33</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>358</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>58</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>93</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>119</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>359</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>42</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>93</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>221</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>360</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>146</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>93</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>150</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>7348.1499999999996</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>361</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>362</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>363</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6609,10 +6759,30 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -233,13 +233,13 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>CETAL SINUS 20 CAPLETS</t>
   </si>
   <si>
     <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
   </si>
   <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
@@ -2329,7 +2329,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2343,10 +2343,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2372,11 +2372,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -6080,7 +6080,7 @@
     </row>
     <row r="139" ht="25.5" customHeight="1">
       <c r="P139" s="13">
-        <v>7348.1499999999996</v>
+        <v>7360.1499999999996</v>
       </c>
       <c r="Q139" s="13"/>
     </row>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 11:11 PM</t>
+    <t>Sunday, 21 September, 2025 11:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -476,6 +476,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>-25.7400</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -644,6 +653,15 @@
     <t>LIPONA 20MG 10 F.C.TAB.</t>
   </si>
   <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>LUCIDRIL 500MG 20 F.C TAB</t>
   </si>
   <si>
@@ -659,9 +677,6 @@
     <t>-26.0000</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>MEDEXAFLAM 15MG 20 TABS.</t>
   </si>
   <si>
@@ -698,6 +713,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>-23.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -842,9 +866,6 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -902,6 +923,15 @@
     <t>29.7000</t>
   </si>
   <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -1001,36 +1031,39 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاته سيليكون </t>
+  </si>
+  <si>
     <t>12:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>47:0</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سكاته سيليكون </t>
-  </si>
-  <si>
     <t>شاش فازلين 10*10 سم</t>
   </si>
   <si>
@@ -1094,7 +1127,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 11:16 PM</t>
+    <t>Sunday, 21 September, 2025 11:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3187,7 +3220,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3197,14 +3230,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3213,14 +3246,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3253,13 +3286,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3270,7 +3303,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3286,13 +3319,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3303,7 +3336,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3319,7 +3352,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3329,14 +3362,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>171</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3345,14 +3378,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3362,14 +3395,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>174</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3385,7 +3418,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3395,11 +3428,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3411,14 +3444,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3428,11 +3461,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3444,14 +3477,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3461,14 +3494,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3477,14 +3510,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3498,10 +3531,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3510,14 +3543,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3527,11 +3560,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3543,14 +3576,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3560,11 +3593,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3583,7 +3616,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3593,14 +3626,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3609,14 +3642,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3626,11 +3659,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3649,7 +3682,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3682,7 +3715,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3692,7 +3725,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3715,7 +3748,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3725,7 +3758,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3748,7 +3781,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3758,7 +3791,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3781,7 +3814,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3791,7 +3824,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3814,21 +3847,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3840,7 +3873,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3853,18 +3886,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3873,14 +3906,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3890,14 +3923,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3906,14 +3939,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3923,14 +3956,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3946,7 +3979,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3956,11 +3989,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3972,31 +4005,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4005,14 +4038,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4022,14 +4055,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4038,7 +4071,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4051,15 +4084,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -4078,7 +4111,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4088,14 +4121,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4111,7 +4144,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4121,14 +4154,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4137,7 +4170,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4154,14 +4187,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4177,7 +4210,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4187,11 +4220,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4203,14 +4236,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4220,14 +4253,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4236,7 +4269,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4253,11 +4286,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4269,14 +4302,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4286,14 +4319,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4302,14 +4335,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4319,11 +4352,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4335,14 +4368,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4352,14 +4385,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4368,14 +4401,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4385,7 +4418,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4408,7 +4441,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4418,14 +4451,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4441,7 +4474,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4451,14 +4484,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4467,14 +4500,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4484,14 +4517,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4500,14 +4533,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4517,14 +4550,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4533,14 +4566,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4550,11 +4583,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4566,28 +4599,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4599,14 +4632,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4616,11 +4649,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4632,14 +4665,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4653,10 +4686,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4665,31 +4698,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4722,7 +4755,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4738,7 +4771,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4748,14 +4781,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4764,31 +4797,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4797,14 +4830,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4814,14 +4847,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4830,7 +4863,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4847,11 +4880,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4863,31 +4896,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4896,14 +4929,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4913,11 +4946,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>28</v>
@@ -4936,7 +4969,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4946,14 +4979,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4962,14 +4995,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4979,14 +5012,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4995,14 +5028,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5012,14 +5045,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5035,7 +5068,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5045,14 +5078,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5061,14 +5094,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5078,14 +5111,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>174</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5094,14 +5127,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5111,14 +5144,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5127,14 +5160,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5144,14 +5177,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>119</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5167,7 +5200,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5177,14 +5210,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>119</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>304</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5193,14 +5226,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5210,11 +5243,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>28</v>
@@ -5226,7 +5259,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5243,11 +5276,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>151</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5259,31 +5292,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5292,31 +5325,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5325,31 +5358,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5358,28 +5391,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5391,14 +5424,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5408,11 +5441,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5424,14 +5457,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5441,11 +5474,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5457,14 +5490,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5474,11 +5507,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5490,14 +5523,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5507,14 +5540,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>241</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5523,14 +5556,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5540,14 +5573,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>330</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5556,14 +5589,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5573,14 +5606,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5589,14 +5622,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>42</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5606,14 +5639,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5639,14 +5672,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>338</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5662,7 +5695,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5672,14 +5705,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>119</v>
+        <v>312</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5688,14 +5721,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5705,14 +5738,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5721,14 +5754,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5738,14 +5771,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5754,14 +5787,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5771,14 +5804,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
         <v>348</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5794,7 +5827,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5804,11 +5837,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>341</v>
+        <v>119</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>342</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5820,14 +5853,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5837,11 +5870,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5853,14 +5886,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5870,14 +5903,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>120</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5886,14 +5919,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5903,11 +5936,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5919,14 +5952,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>333</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5936,11 +5969,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5952,14 +5985,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5969,11 +6002,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>33</v>
+        <v>325</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5985,14 +6018,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6002,14 +6035,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6018,14 +6051,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6035,11 +6068,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6051,14 +6084,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>146</v>
+        <v>343</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6068,49 +6101,181 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>367</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>368</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>93</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>33</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>369</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>58</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>93</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>119</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>370</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>42</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>93</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>226</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>371</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>146</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>93</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>150</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
         <v>151</v>
       </c>
-      <c t="s" r="Q138" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>7360.1499999999996</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>361</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
-        <v>362</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
-        <v>363</v>
-      </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c t="s" r="Q142" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="P143" s="13">
+        <v>7614.4099999999999</v>
+      </c>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" ht="16.5" customHeight="1">
+      <c t="s" r="A144" s="14">
+        <v>372</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c t="s" r="G144" s="15">
+        <v>373</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c t="s" r="K144" s="17">
+        <v>374</v>
+      </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="692">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6779,10 +6944,30 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="K144:Q144"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-21_00-00.xlsx
+++ b/DaySale_2025-09-21_00-00.xlsx
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>Sunday, 21 September, 2025 11:17 PM</t>
+    <t>Sunday, 21 September, 2025 11:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
